--- a/result.xlsx
+++ b/result.xlsx
@@ -425,644 +425,2931 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>标题</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>作者</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>note_link</t>
+          <t>笔记链接</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>author_link</t>
+          <t>作者链接</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>author_img</t>
+          <t>作者头像</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>点赞数</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>广西的“世界桥楼之乡”一定要和ta去一次</t>
+          <t>“如果永远的幸福真的存在”</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>梦想遨游的小张</t>
+          <t>芊芊龍</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/65360bb5000000002402d385</t>
+          <t>https://www.xiaohongshu.com/explore/6663dc030000000006007ab4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5b036dcd11be10374a06799b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/642fa300000000000f0109de?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30uah8go3546g4a5hhsmsqucrrikp6lo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30q9j67b7n40g5p1fkc03q2eulgqlmag?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>572</v>
+        <v>627000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>三江程阳八寨，分享12个不容错过的打卡点</t>
+          <t>📝海外网文作者的一个月满勤收入</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>两只鸵鸟逃跑啦</t>
+          <t>Rena小阔爱</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6621124600000000010327fb</t>
+          <t>https://www.xiaohongshu.com/explore/669a93c1000000000a007aa5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/62dfd415000000001f0178b4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5863c92d82ec39262a58d222?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30qd4e06e06k05omvqganqu5khj78o90?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6691015d771ac29750bb189c.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>530</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>广西千年侗寨｜周边游｜中国最美乡村</t>
+          <t>终于轮到我遇到pay姐了</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>梦想遨游的小张</t>
+          <t>圈圈</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/65546aab000000003203b015</t>
+          <t>https://www.xiaohongshu.com/explore/65c7f55f000000002c02bde9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5b036dcd11be10374a06799b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5a793f8d11be102a679e51e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30uah8go3546g4a5hhsmsqucrrikp6lo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo311hne9unmkdg4a19t7voqkf7kob38lo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>387</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>柳州三江｜两天一夜，山水深处，到底怎么玩？</t>
+          <t>求推荐好用，可买断的ios app</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>一只耶子</t>
+          <t>💤</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/65cf148200000000070074b7</t>
+          <t>https://www.xiaohongshu.com/explore/66d947d00000000025030f01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/622bea790000000010009a02?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5efed1580000000001001b00?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31456ntq3ic005ohbt9sk16g2ghhedsg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5efed1580000000001001b00.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>365</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>这么有民族特色的万豪酒店就在柳州三江！！</t>
+          <t>从PayPal离职了</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>小猪佩奇历险记</t>
+          <t>Pascal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/669a72250000000025014b57</t>
+          <t>https://www.xiaohongshu.com/explore/6528f8d2000000001d01712b</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/6533a025000000000301c24c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/61322608000000001f03aca9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo313002ie8660g5p9jk0igrgicvajo3m8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30nrg7b8m1a005o9i4o47vb59k8bkc18?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>333</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>柳州|三江@程阳八寨,体验侗族民俗</t>
+          <t>啊 pay姐一条广告20w！网红是真赚钱啊</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>可乐加冰</t>
+          <t>气气</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66a9f82400000000270112e8</t>
+          <t>https://www.xiaohongshu.com/explore/66125e6c000000001b008054</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/665c49e7000000000d026aab?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5a9ca5e6e8ac2b629318155d?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3153prehd0q6g5pis97jjcqlboa11qo0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/615046b54480cd0bd1533535.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>246</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>广西避世古寨❗️不用人挤人的冷门旅行地</t>
+          <t>4⃣️款跨国转账软件💵</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>阿猫爱吃三文鱼</t>
+          <t>Miniku橘</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66a3320c000000000901641c</t>
+          <t>https://www.xiaohongshu.com/explore/665baaf400000000050055f1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5dbcea24000000000100622c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5fe91daa000000000100b496?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo317k171cjjq005ndst8i08ohcravmieg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31507rpuoh4005nv93ml09d4mja7uhho?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>188</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>不是西江去不起，而是三江更具性价比</t>
+          <t>打工人在美国 - 401k简介</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>小谦谦谦。</t>
+          <t>胡说小明</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66bdb73c000000001e01c937</t>
+          <t>https://www.xiaohongshu.com/explore/64ab83e9000000002b038362</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5ba233db0e212f0001198803?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/60f8dbae0000000001001b82?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3165d3h8jhe5g4b2fr8ptn203piu2jvg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/63e45ae5167e712cb2f0c8a9.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>175</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>柳州三江攻略｜花小钱体验丽思卡尔顿服务</t>
+          <t>经验贴：个人账户收美金操作（亲测有效）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>纤细的绿巨人</t>
+          <t>外贸Soho小姐姐</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6651a6ea00000000050056ca</t>
+          <t>https://www.xiaohongshu.com/explore/6658488c000000000c0196e9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5b287b3811be102bd290b2cf?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/58aa93e85e87e748c18f77c8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/6354d9351b1387384d249d87.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30ul2u8bm5e504965sp9ugtu8sp7rn4g?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>161</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>去不了重庆，就来三江吧</t>
+          <t>神仙外企系列12｜长期居家办公｜在线支付巨头</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>👏你知道我是谁吗👏</t>
+          <t>小花Fafa~</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6401b96e000000001300181a</t>
+          <t>https://www.xiaohongshu.com/explore/62e663750000000012002d70</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/55d49480f5a2636ba4ccd7c8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5b790daf3014040001a78072?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/6495037d3d74fe6eda528ca5.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30o74m1ke2i004agg5n6qv03ij3fpma8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>160</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>桂林周边游•三江布央仙人山茶园🍵</t>
+          <t>25岁，开始理财一年后感受</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Db942</t>
+          <t>kenz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66121665000000001b00f8b5</t>
+          <t>https://www.xiaohongshu.com/explore/65b14270000000002c011b87</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5e8e08970000000001000bdc?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5b27634311be1022b5450f9d?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo317m1fimq44105nke12bg82us8mr6e70?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62e3254e72df0cbc0fbf85bd.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>119</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>三江第一天。程阳八寨坐妹月也侗寨三江鼓楼</t>
+          <t>澳洲工资单payslip翻译解读（二）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>不懂就问为何先生</t>
+          <t>土澳drama人</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66ba1e770000000005021169</t>
+          <t>https://www.xiaohongshu.com/explore/637e3975000000001c034088</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/6039a901000000000100554a?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5f5647bd0000000001007a23?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/6450e782e53d432542917129.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/631e8ceef6e8b6a78624346b.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>广西柳州|三江</t>
+          <t>一次说清楚401k</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>🍓草莓味胳肢窝🍓</t>
+          <t>Peach &amp; Plum</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66a85b4a000000000600c3c2</t>
+          <t>https://www.xiaohongshu.com/explore/6600eff9000000000d00f7a3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/572d537c4775a74bde61e0a5?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/64a4f22a000000000b0147e6?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo316guspg9ha5g48bhgq9npo55sa816b8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1000g2jo2oniprogk600g5p54u8l2qhv6q99udi8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>三江四座风雨桥，你最爱那一座❓</t>
+          <t>亚马逊跨境电商第三方收款工具对比</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>两只鸵鸟逃跑啦</t>
+          <t>柠檬很甜</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66225fa40000000001004d9a</t>
+          <t>https://www.xiaohongshu.com/explore/65eeb3e8000000000d00cf89</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/62dfd415000000001f0178b4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/6199c03b000000001000cfb8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30qd4e06e06k05omvqganqu5khj78o90?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo310rcq6kv6i6g5ocpo0tk1jtop4e3mh0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>广西·三江｜一座小众宝藏小城</t>
+          <t>美国500强PayPal上海总部工作</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>叫我橙汁就好</t>
+          <t>Hansyi0728</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66d6af60000000001d01abc4</t>
+          <t>https://www.xiaohongshu.com/explore/61fbca35000000000102657a</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/6461f8a9000000002a00ad03?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/561b407f41a2b37c077e54d8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/64a53aaa4ad8c8f5f38a357b.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/66df1c62b93b67c337dba952.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>解锁三江自由行神器共享汽车warmcar</t>
+          <t>晕死，paypal我服</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>在地球上狂奔的YJY</t>
+          <t>fffglh</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/663787a2000000001e03be52</t>
+          <t>https://www.xiaohongshu.com/explore/65d36ab300000000070266a4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/58e4941382ec397b95ed8905?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/583a1d156a6a6936e90bb04f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/64560bf358d0b47698486c1d.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6460e3deb46568f58064ef7d.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>柳州三江·🏯程阳八寨‖侗族百家宴</t>
+          <t>又是做payroll的一天…</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>一冉</t>
+          <t>我是番茄🍅</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66e653e4000000001201199f</t>
+          <t>https://www.xiaohongshu.com/explore/65419379000000001f037d74</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5d7d16ab0000000001008881?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/61979d310000000010008b9a?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30p4o880ijo3g5nbt2qlg9241v0ble80?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/c94b2589011be6d87bfbbbf21db9e2a0.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>广西三江、桂林，阳朔先替大家踩雷了✌️</t>
+          <t>🇲🇾 Salary计算干货 第二集！</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>小张不爱吃香菜</t>
+          <t>SC &amp; CO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6699c68a0000000003026ded</t>
+          <t>https://www.xiaohongshu.com/explore/66c403bb000000001d018789</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/63bd10cf0000000026005f5b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/64ef44220000000004026d3b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31545ch8ngu0g5ott237pgnqr67031i0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30pncu64o6m005p7f8gh14r9ruqcqphg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>广深的打工人到底是谁还没三江躺平啊</t>
+          <t>出国visa信用卡坐公交绑定手机Applepay</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>贫民生活家</t>
+          <t>江见川</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66ae1f250000000027010dca</t>
+          <t>https://www.xiaohongshu.com/explore/667acda8000000001e01039d</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/567e60284659cb3817445df4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5bab984152cf460001ff689f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo315gf92hvgm0g44qlt1g2gnfkvms6618?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31223hsdjhi0g4b63elc42q4vqh273qg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>三江侗族的程阳八寨～</t>
+          <t>准时发工资真的是件大事！</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>掌墨师_挞挞</t>
+          <t>起名字好难啊</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66eac9020000000012010f7d</t>
+          <t>https://www.xiaohongshu.com/explore/656d4ecf0000000038020f77</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/628377af0000000021021fd4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5fdc1e23000000000101c5cf?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo317nen93nk4605ok3eunoc7uk95k8peg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1000g2jo2nopv4iqk80005nus3ohgbhefius2h3o?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>夏天的绿色💚</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>勇敢小八</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/667efcf3000000001c027aaa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/664a9d7b0000000003031f28?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3132utfdj28005piajltgu7p8qcfrdt8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>“Payphone一响 救赎登场“</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>G21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66add36c00000000090171eb</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/654acf570000000006007f2d?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo314ne80ksge005paaptbhgvpdej4dptg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>该挑战payroll吗？</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>航海夏凌（怡宁）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6667086200000000060074bc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5bdf0f42aafb3e0001bfae23?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6366b2a33974e3ed44a44dff.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>🇮🇹有INTESA SANPAOLO户头的朋友们注意！</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Qxx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65058949000000001f038529</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5974de9c5e87e7071c2a5ea6?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30p4mvpqhju0049mlrff9onl628vjb28?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>做咱们这一行，能让你在国外就把钱收了</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>八借充电商务经理Evre</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/657684e3000000003a00d5eb</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/637dfda9000000001f01fd52?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/637dfda9000000001f01fd52.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>当初为了对象选择不出国丨现在后悔了！！</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>小王摸鱼日记（留学版）</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66014670000000000d00d4b9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/64c3da52000000000e026f37?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30n8l9arul6005p63r993krpn3mji7to?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>🇦🇺在图书馆查payslips轻轻崩溃了</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>不吃西兰花的塌鼻子猪</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66714b2a000000001c023d2a</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ec751ac0000000001000040?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo313acvp8cg0005nm7a6m080207m715b0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>一条报价20w+？pay姐到底是怎么火的啊？</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OneMoreBowl｜再来一碗</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66868edf00000000050054d2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/658a30bc0000000022013f77?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3119juvlvmm005pca62u8ifrno4dqlk0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>工资单上常见的英文</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>加油要努力</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64db85da000000001701a15f</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63eb20f10000000026012385?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo317mi6tgiju005ovb43opi8s5dsa8pag?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>payroll做完人都没有了灵魂</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>负能量满满的麻麻</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/667a9678000000001d019154</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5a782e5f11be101ef8358c4b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5a782ea5d2c8a50dbbebfe20.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Zing卡 英留子旅游必备卡</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Oops____</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d5ab6f000000001f014d1c</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad0d51f11be101324514628?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1000g2jo2ksrr59aio0004a4gnvahuhh8gtlfra8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>外币卡绑定钱包</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Urain</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6620e8890000000001032cf7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/65f2adf0000000000500bee1?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/645b7e17e29f7d0acadad89f.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>中国护照，上月开通荷兰区n26，出了对账单</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>蓝蓝</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d430de000000001f03b477</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6475df8f00000000110011b1?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo311f0v1m6mq0g5p3lru7k84dhhn7i8b8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>🇦🇺｜本打工人收到的pay slip长这样</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>JoJo土豆子</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c899b6000000001f01f129</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5dbd89b30000000001001aaf?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo313r06npeic005ndth6pg86lf78v2ft8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Payroll是什么意思？</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>加油要努力</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65a0f716000000001d0163a6</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63eb20f10000000026012385?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo317mi6tgiju005ovb43opi8s5dsa8pag?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>海外翻译公司的付款方式（二）</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>嘟嘟帅紫是翻译</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6555647b000000003300aba1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/61e4edd1000000001000774c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/61e4ee717ab70edf75f0ef8e.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PayPay有希望加入Alipay+吗？</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>现住所TRaVeLiNG</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63bfee20000000001e03c5b9</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/60d99b0a000000000101c0a9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/660e88c2a2080d21b7255cd4.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UK经验贴16—如何看懂Payslip</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>小乔流水</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65aa7299000000002e009168</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5db3cae30000000001006110?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/640e7c5957f404b4860c4e86.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>payslip week 1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>一四七</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63b67dab000000001f027eef</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5a8f8964e8ac2b77354ddfd9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62873a73781b8edc05746aef.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>千万不要用payoneer收款</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>旺旺碎冰冰</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/648d113e000000001300c2c7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5a18da5f11be1033532d5040?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/625e9523a182719b95e2d356.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>没有境外的银行卡能拿到YouTube的收益吗？</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>孟想研究院</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d7fd540000000012010a29</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6024fe90000000000100132c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31003jnusm4005o14vq8084pceralapo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>大家被裁之后公司会多放两个月payroll吗？</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>戴叔叔</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/650cd3db000000001e03199e</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c2ee91a0000000006026160?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6418e28321048c00be5ae123.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>美国🇺🇸记账软件copilot | 丝滑替代Mint</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>禾火子</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/658f0504000000001d014573</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5e8888630000000001002b1c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/657f0aad3b6c7c1a681a2132.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>🇺🇸会计打工人吐槽payroll</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Momo</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65a07e08000000001802bf5f</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b7838838bbbef000198b8ac?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30pn981mu6k104ag72ds87e5c5eao9q0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>🇲🇾小资族都在用的存钱APP｜分享经验💛</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>V 世代</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66b4b4bf000000001e018f81</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/648cf434000000002a036253?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/669fb9129816211ff000c60a.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>国区Paypal相比较美区Paypal优劣对比</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>跨境F独立站JJ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/667bebec000000001d016ba8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63b98c770000000027029450?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3133eiabh18005otphhrpt52gbsqlmpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pay姐好像山东的大白馒头……</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>呼呼噜^（禁言版</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6620fc9100000000010077df</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5e2e8ae0000000000100a0b3?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/66ab7eb8b4c088e98d817229.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>派安盈实体卡 这费用是不是有点离谱</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>waynebeingrich</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64f92037000000001e02137f</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5da076ad0000000001005128?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/63d8c464cb14d4d74c06fe80.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>上午抽空去了一下德国，注册了一下Fiat24</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>蓝蓝</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66de7f9d0000000027007a56</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6475df8f00000000110011b1?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo311f0v1m6mq0g5p3lru7k84dhhn7i8b8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>每天揭秘一个留学博主的院校 pay姐篇🌈</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>🍅炒🍅（留学辅导版）</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66908951000000002500018c</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/667b89ce0000000003033d30?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo314gatlpkmg6g5pjrh770uf9g20h4nco?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>派安盈PAYONEER触发了银行验证，险些虐疯</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>小红薯654668EF</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66b9780e0000000025033cbb</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/65452e6e0000000004008896?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo316cqd81cgq005pa55pn1124mk531730?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>北美企业岗位之：Payroll specialist薪酬</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>北美Frank</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65fc73c1000000001302758e</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5f8262c30000000001008140?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo311f8r1j2ma005ns2cb1g90a00avq3n8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>企业拓展海外市场，不一定要建立海外实体！</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6311b074000000000900ed7c</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>为自己的税后工资哭泣</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>世界上最好的杀生丸</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/668fec1b00000000250053ce</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b3f75b34eacab461e2c13c2?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5b3f75e1d1d3b91cd64cfe88.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>码住，埃及开卡必知，💳+电子钱包✅</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>李家小碗儿</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66812b98000000001d018970</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/59f7d94311be104b449e2b6e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo312s22k40l00049v1njck6area66ddpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Versa Cash - Unit Trust</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>:000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/666afa69000000001c0298fb</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5d26c2ff0000000012022857?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31404ud402e005n96obvkka2nioteebg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>🇲🇾工作 大学生 打工人 即将毕业</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>卡小系油</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66583992000000001401a6e8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5e9181a00000000001003cad?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/66c6dc2ab60d8bbbc854acfd.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>💰💰打工族/大学生都适用的存钱推荐APP</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>隔壁老陈</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/654e5f1f0000000017034643</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5e9aae720000000001007a79?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30qiu9grmg8605nkqlpp08ujpapulap0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>“Payphone一响 救赎登场”中间段不好请见谅</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>一架正在滑行的南航A380</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66acc27d0000000027011609</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6419b71000000000110208b8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3174cct8rjk005p0pms84c25ojgj0h1g?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Versa Japan🇯🇵</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>卡皮巴拉的枕头</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/669770a9000000000d00c52f</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5d0e158200000000100214a1?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/616af40b8637faf8a6565324.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Versa save 存钱</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Shim</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66df0f5400000000260317a0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/632eda93000000002303dc10?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/632eda93000000002303dc10.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>WHV｜W｜收到工资快乐中01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>你猜（澳洲版</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6604316600000000120315b7</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c5db4d5000000001201a3ec?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3101ihoqilq005n2tmjakj8vc2tmog3o?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>派安盈payoneer每天几k平台自有资金入账</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>陈二牛牛</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6670eda7000000000e032528</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62fbdfa10000000012003f6e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62fbdfa10000000012003f6e.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>paypal提现费用以及多久到账?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>小红薯66EE5801</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d6d4fa000000001f01847d</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/658a21060000000022008cb8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3106rpqg15ud05pca4438h35ocf7be8g?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>最后一周工资没有收到payslip</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>姜汁beer</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6603c063000000000d00c625</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/597b2b755e87e76afca2e8a4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo312nt5mui2q0049mvsglnbq548qid4a8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PayInOne--中国企业出海的送水人</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/628b64010000000001028ecd</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>企业出海两大利器：Z世代人才与全球化雇佣</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/62b13e84000000000e01e9a6</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>防范“黑天鹅”，企业如何有效避险全球性危机</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/62ba745200000000040051aa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>有些老外非要payoneer收款</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>英文独立站站长成长笔记</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6617ea0c000000001b00e7e6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5e48b0ad00000000010073be?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5e48b0ad00000000010073be.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>手把手教你搞定意大利工签申请所有材料！</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66aae59000000000270100c1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>“新常态”下，企业如何应对海外员工薪酬发放？</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/62a96ee100000000140191e8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>海外收入到底还要不要在国内交税？！</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>莫莫莫莫莫妮卡</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66b095b00000000005033487</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/660507fa000000000d0247ee?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo310sjql2fmo605pg50vt3chvej6l8i98?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>海外雇佣contractor，面临的支付问题有哪些</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6535deaf000000001e020d49</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>关于PayInOne</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/653f1edc000000001e02c289</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Payoneer验证，怎么解决</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>小红薯64F8E057</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66614535000000000f00d5cc</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/64f87b6300000000050004c7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/645b7f8f2a34639eb26eb1cd.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>海外雇佣之什么是contractor灵活用工？</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/650d56e5000000001f03c121</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>金三银四消失了？海外用工成为突破口</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/62988578000000000102d869</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>海外十三薪？以及假期奖金？</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6541c0f3000000001e02143c</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>现在外派员工去德国，应该申请哪个签证？</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65bf2687000000002c03828e</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>空标题</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>粑粑是我，我是粑粑</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/661517fe000000001a00c9cf</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6522b10d000000002a01a4d7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/645b7e4b86578b8c6ab3b056.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>企业如何高效进行亚太市场海外用工？</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/62ce5ea00000000021039afd</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>墨西哥工作时长？公共假期？休假制度？</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66ceeb22000000001d0380ae</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>中国企业如何雇佣管理海外员工</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/654a160e000000001e0213a4</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PayInOne-5月31日出海大事记</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6659a65f0000000005004fe1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>🇩🇪德国移民：工作签证（下）</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>欧洲移民调查官</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/665594cf0000000014019e16</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/65f152be000000000500e1fc?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3133d834di6605pfhaav19ofs9cbnqb8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>不想休的假期可以“卖”掉吗？</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65409d7c000000001e03c0a9</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SaaS系统助力企业灵活用工</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PayInOne SaaS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/62ea3a0200000000110100c9</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c08f860f7e8b926658a242e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/d2e89586-3786-365b-afa6-c67d807991e3?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>9月有人想来PayPal做数据分析吗？</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Lillian</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66ba1b29000000001e01bbfe</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/665ec6d40000000003033656?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo314hn9qfe686g5piuora0udimq1vmvk0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>企业出海雇佣管理🔍每周劳动法规更新一览</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/656946a2000000003802efbf</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MetaMask</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>比特引力</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66ab36170000000005038924</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/599d2a594f8fd603f5260030?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo312eujpdimc0049oingl5i01geme9bp8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>周五愉快！来看看当今的全球法规更新</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65b38236000000002c013108</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>小白期权问题求助</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Edward</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e558320000000027003260</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ce857f1000000001000c9d1?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/640f008b1633662142fd7bf0.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>派安盈</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>多喝烫水</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e1a95d00000000270068a1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5d7f88fc000000000100aefa?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62d8e0cf5bddb141b386bca9.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>印度尼西亚工作时长？公共假期？休假制度？</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66ea36a4000000001e01bb95</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>香港pokepay U卡入金myfin欧元钱包，不冻卡</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>平头哥解说</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d7a74c00000000120104db</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/657bc4f900000000190101db?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30smi2vho440g5pbrojsma0er6m49n2g?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>全世界都在涨工资——全球劳动法规更新</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PayInOne薪湾</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6543861a000000001f00617b</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f602b2000000000f0109f4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/709be0e8-7cbf-3d91-9e4f-814e010f2abf?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
@@ -516,130 +516,5505 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>广西的“世界桥楼之乡”一定要和ta去一次</t>
+          <t>上百万红蟹集体迁徙，被汽车压得嘎嘣脆</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>梦想遨游的小张</t>
+          <t>Hi科普君</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/65360bb5000000002402d385</t>
+          <t>https://www.xiaohongshu.com/explore/653231f5000000001f03b4a8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/5b036dcd11be10374a06799b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5aa28f9411be101652539db0?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30uah8go3546g4a5hhsmsqucrrikp6lo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3151uli0lhe004a37ho7p97dg3o9m320?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>672</v>
+        <v>5808</v>
       </c>
       <c r="G2" t="n">
-        <v>571</v>
+        <v>947</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>说是柳州，你们是不是只想到螺蛳粉，要不避开人群，来看看柳州的后花园，这里充满着侗族风情，准备好三天两夜，要怎么玩，玩多久，有什么特色美食，住哪里方便，跟我走行前准备做攻略（小红书、某程、某音、马*窝）各大出行app/12306住宿（各大第三方平台）注意出行期间天气行李准备证件:身份证、学生证、优待证以及其他洗护用品当季衣物电子设备随身药品其他杂物交通指南最近的高铁站:三江站住宿推荐寨子不大，住宿可以不住景区景区内多以民宿为主，价格100-700不等，丰俭由人	景点推荐侗天宫这是三江作为侗族自治县最为珍贵的民族文化遗产之一，代表了侗族文化的悠久古老，蕴含了侗族的宇宙观，世界观，生命观，彰显了侗族文化的高度和广度，可与世界各民族的历史及文化比肩。一座涵盖了中国侗族精神文化和物质文化的体验式旅游新地标；	三江风雨桥三江风雨桥是三江侗族自治县内的一处标志性景点，它将侗族的木构风雨桥与现代钢筋水泥结构相结合，成就了这座在国内长度和规模都名列前茅的特色风雨桥。	三江鼓楼鼓楼内部较大一棵主柱树龄有208年，第二主柱树龄206年，这在鼓楼建筑史上是仅有的。鼓楼的基座石上，雕刻有反映侗族抢花炮、踩歌堂、打油茶、斗鸡斗鸟、养蚕织布等日常生活场景的浮雕，画面栩栩如生，乡土气息浓郁，处处展现出侗民族悠久的历史文化	多耶广场市民娱乐的市民广场，在三江鼓楼附近	程阳八寨程阳八寨由程阳八个自然村寨组成，周围青山绿树环绕，景色优美。观看侗族风情的民俗表演，是观光摄影、领略侗族风情的好去处。美食推荐滑滑粉用米浆蒸熟成米皮，然后加入花生碎、葱花、酸笋、辣椒、肉末、酱汁等制作而成油茶油茶是少数民族平时比较常吃的美食，也常常用来招待客人。煮一锅油茶水，添上油茶果，配上一些小菜，可以一边慢品酸肉酸肉以猪肉为原料，把猪肉切成约一斤重的肉块，用生盐腌两天，使肉质完全进盐味后稍微风干，然后用辣椒粉、糯米饭和一些甜酒糟搅拌均匀。行程安排抵达柳州—侗天宫景区—享用侗族特色油茶—侗乡鸟巢观看“坐妹”三江风雨桥—三江鼓楼—多耶广场—程阳风雨桥景区—程阳八寨吃完早饭—返程</t>
-        </is>
+        <v>468</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>#浪漫生活的记录者 #旅行推荐官 #旅行攻略 #美景 #旅游 #周边游</t>
+          <t>#动物 #圣诞岛红蟹 #科普 #奇妙的动物</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>这里离柳州市区多远？
-能推荐一下广西桂林以外还有最美的景吗？
-现在冷吗？
-三侗大寨附近有哪些好吃的？
-2天一夜可以玩吗？能体验侗族民风民俗嘛？有特色民宿推荐吗
-您好，请问图三是在哪个位置拍的？
-可以抱图吗，只用作分享，会标注来源
-能否用您一张图，用于学位论文使用，非商用
-不知道有没有一日游的那种团呢……
-请问一下这些寨子进入要门票吗？</t>
+          <t>不能吃你讲解那么多？？！
+这么肥的螃蟹不能吃，可惜了
+不能吃，没有经济价值，还保护他干嘛？
+我只在乎，这种蟹能吃吗？不能吃就算啦
+不能吃养那摩多干嘛？不能让她随便泛滥啊
+不能吃的螃蟹跟蜘蛛一样看见就讨厌
+一定有什么办法可以把毒素减少比如腌制或者别的方法
+我记得颜色越漂亮的螃蟹越不能吃
+那干嘛保护
+这不就是化学书里的甲酸</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>三江程阳八寨，分享12个不容错过的打卡点</t>
+          <t>正发生｜圣诞岛千万只红蟹大迁徙🦀️</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>两只鸵鸟逃跑啦</t>
+          <t>澳大利亚旅游局</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6621124600000000010327fb</t>
+          <t>https://www.xiaohongshu.com/explore/63743881000000002401080b</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/user/profile/62dfd415000000001f0178b4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+          <t>https://www.xiaohongshu.com/user/profile/5b861b32ad8f350001cef240?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30qd4e06e06k05omvqganqu5khj78o90?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64e8a88de8042c9f61802574.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>671</v>
+        <v>5460</v>
       </c>
       <c r="G3" t="n">
-        <v>772</v>
+        <v>363</v>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>走在古朴街巷，在清澈的河边鞠起一捧水，耳际会时不时传来几句山歌声，猛一抬头，侗族小伙子们穿戴整齐，正在发射火炮。.程阳八寨，虽然有些商业，但这里的人们都带着满满的善意：奶茶店的小姐姐给我们倒满热水，还帮忙充电隔壁卖鸡腿的小姑娘佘给我一根美味的烤鸡腿米粉店正在跟着简谱学弹琵琶的娘俩，看到有人来，赶紧放下琵琶来招呼老房子里纺线织布的老奶奶，努力用勉强能懂的话回答游客们的各种问题河边洗鱼腥草的小哥哥说这井他们只用来洗菜，上井水是吃的很甘甜，而自来水用来做家务.虽然现代生活改变了他们的生活方式，但祖辈的纯朴民风还留在他们一言一行里。.远方来的客人们，体验传统百家宴、篝火晚会，纷纷租借了漂亮的民族服饰，画着美妆穿梭在弯街曲巷，面对面遇见会称赞一下，获得对方一个开心的感谢，觉得自己也美美哒。.程阳八寨，一步一风景，下面是我推荐的12个拍摄点/方式：P1：睐努亭，程阳八寨最佳俯瞰点，比听耶亭好些，爬上去大约一刻钟。P2：岩寨水街，万寿桥边，模特走台阶上下皆可，摄影师在万寿桥头。P3：程阳永济桥，桥上只适合拍局部，要拍全景不如桥下田野间。P4：马鞍寨码头，模特漫步过桥即可，摄影师在桥头高点连拍。P5：百年老房边的一位老篾匠，手艺很有民族特色，这儿的人都很和善，多与当地人互动。P6~8：百年老房：岩寨内的一个高点，里面有几位手工纺织的老奶奶，生活不易，走时记得给她们一点捐助。P9~12：抓拍民族服饰：街上随处可见，又有民族风情又好看，可长焦抓拍，拍好了可上前展示给她们看，我抓拍的这个小姐姐就很niceP13：侗族歌舞表演：寨内有很多演出，唱山歌呀，侗笛情歌呀，甚至还有老板娘一边看店一边弹琵琶。P14：侗画馆：侗画色彩斑斓、新颖别致，展示民俗风情。P15：木构博物馆：侗族人擅长木制建筑，风雨桥、鼓楼都巧夺天工，博物馆顶层也是岩寨高点。P16：百家宴：场面非常壮观，即使不参加百家宴，也可以去拍摄。P17：篝火晚会：侗族女子下厨可做百家宴，上厅可载歌载舞，免费观赏，你甚至还可以上去一展歌喉哦。.旅游旅行三江程阳八寨</t>
+          <t>每年差不多圣诞节前两个月起，在距离珀斯四小时飞行航程的圣诞岛都会上演这一“红毯”的奇观：-多达六千万只红蟹占领道路，从丛林迁徙至海边再返回，只为繁衍产卵。	此时，岛上还会进行部分封路，以保障它们安全。	你可以报名当地的相关tour，由经验丰富的向导带你见证这一被大卫·爱登堡爵士（SirDavidAttenborough）称为“地球上最壮观的自然奇迹之一”-圣诞岛在哪：ChristmasIsland圣诞岛是澳大利亚的海外领地，位于珀斯西北2,600公里的印度洋上，以红蟹、海鸟、鲸鲨和壮观的珊瑚礁而闻名-圣诞岛的魅力还在于，这片岛屿被珊瑚礁环绕，与周边其他陆地和岛屿的距离都相当远。加上岛上几乎三分之二的面积都是国家公园，因此也是一方生机勃勃的自然天堂。	60多个潜点分布于圣诞岛清澈的海水中，色彩斑斓的珊瑚花园是超过575种热带鱼的家。11月至次年5月还有鲸鲨来访，难怪圣诞岛也是潜水爱好者心心念念的天堂！	红蟹</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>#广西 #广西旅游 #柳州 #柳州旅行 #三江 #柳州三江 #程阳八寨 #三江程阳八寨 #自驾游 #侗族</t>
+          <t>#澳大利亚旅行 #海外旅行 #圣诞岛 #圣诞岛红蟹</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>谢谢姐妹们喜欢，我还分享了广西其他好玩的地方，欢迎去主页翻看哦
-你们错过了广西最美侗寨之一，中国传统村落，建筑界经典和文化遗产，并且是冷门景点，三省交界处，三江独峒镇高定村
-看来现在还是商业化了许多，我之前去只有三蹦子才能开进去，汽车都没路上去
-能否用您两张图，用于学位论文，非商用，谢谢
-请问，吃饭方便吗？
-我家在里面来找我玩免费带你进
-要门票吗
-您好不自驾的话通方便吗
-好玩好玩
-请问第一张是哪个观景台拍的</t>
+          <t>也是没想到这篇笔记就这么火了那就，原地祝大家一个圣诞快乐吧！
+坐中间好怕你被夹着屁股
+我的微信老家
+怎么吃？
+这里办圣诞岛签证还是澳洲签证呢？
+其实看着这么一大片，心里只有一个想法，赶紧去找夹子啥的，然后是一个大口袋狂收集，之后是做红烧好，还是清蒸好，这是个问题。
+@我不是小鬼这里边有你吗
+@xxxxxxxxsssssss这能吃吗
+@骑着蜗牛超中尉
+红蟹迁徙是什么时候啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>空标题</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>时光宝藏Thrifter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6676d1d0000000001c028c81</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5e28588e0000000001008876?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo314ojl12e1a005nh8b270923mrf3ifdg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3771</v>
+      </c>
+      <c r="G4" t="n">
+        <v>410</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1930</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>一家人在西澳大利亚远西北的偏僻圣诞岛上露营烧烤时，一群群的蟹自己送上门来。</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>这个品种长相太它可怕了！自从知道澳大利亚有盘子大，我就不想去了！
+受不了评论区的一些伪科普了，比如说椰子蟹是像蜘蛛的甲虫，帝王蟹是海蜘蛛等等。椰子蟹、帝王蟹和大家认为的螃蟹，比如梭子蟹，都是甲壳纲十足目的，只不过椰子蟹是寄居蟹科的，梭子蟹是梭子蟹科的，帝王蟹是石蟹科。所以椰子蟹、帝王蟹说是广义上的“蟹”完全没有问题。至于说海蜘蛛就离谱了，海蜘蛛是海蜘蛛纲海蜘蛛目海蜘蛛科的，分类学的关系和帝王蟹可远了，远亲都算不上，只是外形有一点像。
+太像大蜘蛛了
+圣诞岛日常
+合法不？合法的话就敞开了整，这玩意儿好吃～～
+都让开，让我说下，我吃过
+椰子蟹很好吃啊，用火一烤就能吃，这要是中国试试，能给你吃灭绝了。
+椰子蟹真的不好吃吗？我以为它都吃椰子了肉应该很香甜
+@
+@猩猩剥梨好耶</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>猜猜它是谁？</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>涓涓</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/660ff764000000001a014be5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c5a920f000000001003bdc7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5c72f19e92b41c0001d95577.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1044</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>391</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>某年有幸踏足圣诞岛。圣诞岛于我是一个神奇的地方，岛上华人居多，以开采磷矿为主。那次去的时候正好有大人物也在岛上，岛上的华人居民举行了一场传统的舞狮表演活动，不错，正是南舞狮。最令我感到亲切的是岛上有华人参拜的庙，跟我们广东的庙简直就是一模一样，恍惚间我以为自己身在家乡。岛上有一博物馆，我最感兴趣的是关于华人部分。记载了华人在什么时候登岛，从事开矿工作，很辛苦。后来经过大家的共同努力，争取了应得的权益。（有一些照片作为佐证，最早的华人还留着清朝的那种后脑勺一大长辫子。）岛上风华秀丽，如果有机会大家可以去，是个好地方。</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#奇妙的动物 #大自然 #户外 #抓螃蟹 #圣诞岛红蟹 #椰子蟹</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>金炳万的丛林法则
+所以他为什么叫椰子蟹？
+椰子蟹，以前看那种海岛冒险节目见过，后面小翔哥买来吃过，那个屁股弄熟了真的蛮恶心的
+蜘蛛，螃蟹就是海里的蜘蛛，皮皮虾是海里的蟑螂
+有个博主叫琼斯，吃了两次这个、直接干吐了。椰子蟹
+它叫八百八一只
+好吃吗
+螃蟹，能吃不？味道怎么样？
+椰子蟹海底小纵队不是白看的
+已吃</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>圣诞岛</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>西米鹿鹿🦒</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/639aa62b000000001c034b93</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/56bb430b5e87e715bcc4298e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5d9ea82e99616700012ceb51.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>651</v>
+      </c>
+      <c r="G6" t="n">
+        <v>194</v>
+      </c>
+      <c r="H6" t="n">
+        <v>146</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>第一次遇到微信地区跟我一样的而且聊天好开心</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#真香 #弟弟</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>我是椰子溪
+我是德国汉堡
+圣诞岛在哪
+日本千叶县我孙子市
+有没有带狗的地区喜欢小狗
+怎么设置不显示美国啊
+我的也是诶
+我也是！
+我的是法国奥尔良
+怎么设置圣诞岛呀</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>旅居回忆录｜在澳洲偏远海岛打工 圣诞岛</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>🐳🐳🐳</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6551e054000000001f02dbca</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/582e81f634609410c77bfd70?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3157e6ckdhc0048rnv80vdvbgkl8p8k0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>433</v>
+      </c>
+      <c r="G7" t="n">
+        <v>166</v>
+      </c>
+      <c r="H7" t="n">
+        <v>62</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>曾经在圣诞岛旅居了三个半月每当提起那段日子脑海蹦出来里第一个词儿就是：美好当时在岛上的一家超市做收银前台一天工作七小时一周五天半工作很轻松提供免费的住宿还有一辆车工作之余的生活也很快乐工作的超市门口便是一望无际的大海岛上完全没有信号除了住的地方有Wi-Fi出了家门手机就只是一个拍照工具了但这恰恰让我第一次感受到了远离网络世界人和人相处的时候真正直面彼此以及不被打扰的观察和感受当下原来可以如此如此让人情绪饱满下班后的日常是跳进海里游泳浮潜岛上的Jetty简直最棒的浮潜圣地果冻般的海水五彩斑斓的珊瑚成群的鱼	认识了许多当地人和也在岛上短居的人教我自由潜带我玩儿Kayaking一起出海看海豚和鲨鱼寻找鲸鲨和它一起游泳每周给我送新鲜捕捞的三文鱼一起看露天电影傍晚在海边聊天弹琴唱歌打羽毛球徒步观察鸟类参加当地的各种活动还在圣诞岛上过了圣诞节	在岛上认识了一个台湾研究陆蟹和海龟的教授每周都带我和小伙伴们去雨林徒步为了观察海龟产卵得开四驱车40分钟再徒步一两小时去到各种偏远的海滩但并不是每次去都能等到海龟去了四五次吧谁都没放弃即便等不到海龟大家也乐于享受徒步过程在海滩爬树摘椰子看日落看银河还一起看到了许多只属于海上的流星终于等到的那次大家为了不打扰到海龟躲在椰子树下的丛林里蹲着趴着观察了好几个小时直到凌晨三四点才离开	岛上随处可见成群的红蟹和巨大的椰子蟹一开始还动了想吃它们的念头家门口就住着几只红蟹每天给它们投喂面包朝夕相处一段时间后觉得它们好可爱让我吃我也舍不得了12月份刚好赶上了雨季到来非常幸运的等到了一场壮观的“红蟹大迁徙”所有红蟹从山上迁徙到海边产卵人们为了减少它们被过往车辆碾压的概率专门给它们建造了各种通道过马路的天桥地下通道甚至还有一个工作职位专门为过往车辆驱赶和扫除马路中间的红蟹	在岛上生活的那段日子美好简单快乐和大自然相处感受它拥抱它热爱它真正享受当下	生活红蟹</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#旅居 #旅居生活 #澳洲打工度假 #澳洲whv #WHV #澳洲海岛 #圣诞岛 #圣诞岛红蟹 #海岛生活</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>我一时兴起想搜索我微信地区选的圣诞岛，没想到还真有，谢谢你的分享，长见识了
+北京不能直飞圣诞岛么
+这份工作怎么找
+那边工作是说英语吗
+印尼怎么到圣诞岛呀我没查到有航班
+能坐船到么从印尼什么的
+有没有一起去圣诞岛的从印尼坐船去的那种
+請問是推薦到島上工作的嗎？前兩天也找到了島上的工作！
+我的微信地区随便填的这个原来是这么米的地方
+请问岛上消费高吗酒店怎么样</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>🇦🇺🇨🇽澳属圣诞岛：世界上另一个新加坡</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>我叫东沃dongwook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64e436500000000012018282</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6167c3d00000000002018028?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64c3e1ccad358de4dc17621c.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>292</v>
+      </c>
+      <c r="G8" t="n">
+        <v>139</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>小国新加坡不为人知的割地往事，造就了属于澳洲的一处华人岛和马来岛。</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#历史 #华裔 #人文 #新加坡 #澳大利亚 #马来西亚 #圣诞岛</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>兜兜转转微信老家竟也都是老乡
+还想去那边玩
+@三千点以下遍地是黄金
+想去圣诞岛旅行好久了
+感谢分享
+毕竟当时是英治时期本地人说不了算也就没必要把这事放在心上
+Up主太厉害了,好奇up主的背景
+@togertoast</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Merry Christmas丨圣诞岛原来是这样的嘛?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>事儿菌（留学搭子版）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65842e72000000003a00fb92</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ff5a1a900000000010051e2?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3144ld59pic6g5nvlk6kg8kf2i77u6fg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>241</v>
+      </c>
+      <c r="G9" t="n">
+        <v>97</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>圣诞节去个“圣诞岛”嘛澳大利亚的圣诞岛（TheTerritoryofChristmasIsland）位于位于珀斯西北2,600公里处，是印度洋上的一块岩礁，是全球除中国和新加坡外，少数以华人为主的地区之一。.圣诞岛有着“印度洋的加拉帕戈斯”（GalapagosoftheIndianOcean）之称，以其红蟹、海鸟、鲸鲨和壮观的珊瑚礁而闻名～.圣诞岛名胜及必游体验观看螃蟹大军迁徙探索水下天堂进行全岛野外探险在免费的岩石水疗中心放松身心观赏世界上的稀有鸟类.分享到这里啦，有没有去过的小伙伴可以分享一下心得体验或者照片嘞～好奇大家去过的真实体验哎.照片真的很好看耶SwellLodge版权所有圣诞岛旅游协会版权所有记得点收关事儿菌哦氛围这么拍节岛红蟹岛好去处暖心攻略季生活@知识薯@校园薯@生活薯</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#旅行大玩家 #旅游 #一起去潜水 #澳洲留学生 #澳洲留学那些事儿 #留学澳洲 #圣诞 #christmas #圣诞氛围这么拍 #圣诞节 #澳大利亚圣诞岛 #聖誕島 #圣诞岛红蟹 #圣诞岛 #圣诞好去处 #圣诞暖心攻略 #圣诞季 #澳洲旅游 #澳洲旅游生活 #西澳珀斯 #珀斯旅游攻略</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>好奇怎么去
+好好看去那贵不贵
+merry
+好漂亮
+可以从新加坡飞吗
+@黛西生存记
+有国际学校吗
+3月初有没有一起去圣诞岛的
+@西伯利亚暴龙徒手捏碎地球</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>不会有人没来过圣诞岛吧？？</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一只平安耶椰🥥</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63727eb50000000015017a5a</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5983388982ec396be82fbd1c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/621b12bb86db36a48027b93a.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>123</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>说走就走的旅行ip：圣诞岛</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>我刚刚看的时候还没刷出来这条
+微信怎么设置成圣诞岛？
+咱多住一段时间，顺便把生日过了！
+从澳洲过去的还是从印尼坐轮渡过去
+请问国内买哪个航司去哇
+我
+你们去了吗
+@幺幺.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>圣诞岛的大GT抢食有多凶猛？</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>野行涛哥</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/623eded800000000010295c2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5c20fb90000000000603adb3?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5c2485f5b454b90001af8596.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>122</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>圣诞岛的大GT抢食有多凶猛？</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#海钓 #钓鱼人 #户外钓鱼</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2022-03-26</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>gt是啥</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Catalina Island｜圣诞岛 洛杉矶可爱的小岛</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ChampsÉlysées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/643227c30000000013003bab</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/56b1da0850c4b451c4ca650c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/65cc10d442211f8fa32ce8e4.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>111</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>从洛杉矶longbeach坐船1小时一定要租高尔夫车才可以去到山上看风景需要驾照Avalon岛上随便转有的Airbnb提供免费的车岛上租的话一小时五十比较贵	岛上有很多娱乐设施parasailing水下潜水艇不建议潜水水质不好没什么	注意看天气预报岛上经常阴天晴天才美</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#加州 #洛杉矶</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>好看</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>澳洲WHV｜在圣诞岛打工度假是什么体验（上）</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>南瓜秧流浪地球</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66cf0e0e000000001f01d8b0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6251af36000000000d031ee9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30tcr8e44440g5oihlsr3e7n98sbaslo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>106</v>
+      </c>
+      <c r="G13" t="n">
+        <v>77</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>每次和朋友说起我在哪，就会收到一张googlemap截图和三个问号？？？这么远？！是的没错就是这么远…圣诞岛是非常靠近印度尼西亚的一个小岛，属于西澳的偏远地区，对于whv来说是可以集签的地方	交通篇：每周二周五会有珀斯圣诞岛的维珍航空航班，单程600/900贵贵贵……	住宿篇：我的工作包住，朋友三个女生一起租房150每人/每周，岛上没有青旅，旅馆面向游客所以很贵且不好找	吃饭篇：岛上的食物都要靠船和飞机运输，不太新鲜或者贵，餐厅也贵，一般就是自己做些白人饭	工作篇：在岛上supermarket收银+理货+厨房包菜，平时还行，每六周会有船运货柜来就超级忙	找工方式：台湾backpacker网站搜“christmasisland”FacebookCIboardgroup上发求职post尝试直接找到老板，目前没有听说有空位	提供岛上招过背包客的商店和餐厅名字供参考CIsupermarket（大超市）MengChongTrading（小超市）TheGoldenBosun（餐厅）TracksTavern（餐厅）RumahTinggi（酒吧）RecreationCentre（咖啡）	岛上工作真的很少，因为总共就几家店，有的只招本地人有的一周开两天，之前有小伙伴说想要来圣诞岛walkin，如果没有找到工的话，往返的机票+住宿花费会是巨大的，强烈建议就是找到工再来	与这里极度简单的生活方式相匹配的，是友好的居民和原始野性的美丽风景，每一个身处自然的瞬间都是自由快乐的……下篇再说啦签证晚霞</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>#打工度假 #澳洲whv #澳洲打工度假 #澳洲 #澳洲打工度假签证 #gapyear #辞职 #日落 #日落晚霞 #一起去看海</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>那什么东西哇塞大蜘蛛
+请问国内有没有直飞航线
+要澳大利亚签证吗
+你这才是真的workwithholiday
+好棒的经历！
+太爽啦！
+原来打工度假可以去圣诞岛啊
+真的是干货
+瘦了好多！</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>有钱的医生🧑‍⚕️</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AlexLucky27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a76b11000000002701dab6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/61e3c2dc00000000100052da?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/631f671b02e50d5f735b85df.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>#alexlucky #老外真会玩 #老外在中国 #老外的生活 #圣诞岛</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>可以说说天津话了
+也有一个俄罗斯男人跟你一样喜欢骗人，忘了叫什么，长得蛮漂亮的
+嫁人了吗？生日那年
+在天津啊
+啊我在小红书搜索基里巴斯就搜到这里了……
+这货天天拿天津人开涮，哈哈哈哈哈哈
+下回你说你是奥运选手
+Youaresuchanoldsix
+居然一多半是华人啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>圣诞岛红蟹居然吃孩子？</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>狐说八道</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66ffa8bd000000001b0211c6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62962b98000000002102909d?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64fc36a62831d102a9505fc2.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>红蟹千辛万苦迁徙到海边产卵，没想到它们居然把孩子给吃掉？</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>#螃蟹 #圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>看着蛮好吃的可是怎么看出来熟不熟啊
+这玩意能好吃不
+我以为是红蜘蛛
+那里的柴烧出来是红色的火吧！
+一
+个大否？好吃否？
+到了咱们中国都快灭绝了
+小红蟹看着好适合做零食
+狂欢的音乐好搭</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>如果你在地图上看到一个小狗🐕</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nice2meetu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65f10db10000000012033909</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b162081e8ac2b6e36f517de?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo310933ndr6m004a5uu6g825uuqnntei8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>84</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>那里就是圣诞岛啦</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>#圣诞岛</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>@雪碧是个小土狗我们的老家
+@Ning_</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>冯贝爷带你看世界--第80集-圣诞岛</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>冯贝爷观世界</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65d35f510000000007026bb9</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/614cab060000000002018293?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30s7gapeb2o5g5oaclc30j0kj3eb2q40?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>冯贝爷带你看世界-（国家篇）-第80集-圣诞岛跟我一起用航拍视角了解一个真实的圣诞岛关注主播，主播每天带你了解不一样的世界攻略大玩家知识涨知识</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #带着小红书看世界 #旅游 #旅行 #环球旅行 #旅行攻略 #旅行大玩家 #治愈系风景 #旅途中的美景 #地理 #地理知识 #科普 #科普涨知识 #航拍 #每天了解一个国家</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>圣诞岛，先红起来了🦀️</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>澳大利亚旅游局</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65b89adb000000002c0293e0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b861b32ad8f350001cef240?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64e8a88de8042c9f61802574.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>64</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>每当雨季到来，圣诞岛的红蟹们就开始蠢蠢欲动：它们即将展开一场伟大的旅行从巢穴探出身子，穿过丛林和马路，集体奔向海边产卵繁衍当千万只红蟹齐头并进场面之震撼让大卫·爱登堡爵士也不由感叹：“地球上最壮观的自然奇迹之一”-2024年1月，我们终于迎来这个季度的大规模红蟹迁徙啦！岛上的主要马路已经立好警示牌，为红蟹们开道-圣诞岛“红毯时刻”进行时FunFactsaboutChristmasIsland“当红蟹抵达海边，雌雄交配后，雌蟹会在海边产卵（一次多达十万个）新孵化的螃蟹宝宝只有五毫米大小，它们出生后会逐渐向内陆转移，躲在丛林和岩石缝隙逐渐长大但很可惜，大多数螃蟹宝宝可能并不会存活，成为鱼儿们的食物。这就是残酷的自然法则吧圣诞岛是澳大利亚的海外领地，距珀斯约4小时飞行航程。岛上居民并不多，却有相当数量的华人定居。因此，对于圣诞岛来说，春节可是件大事！每年都会举办各种舞狮舞龙等庆祝活动，年味十足！此外，这里也是潜水爱好者的天堂：60多个潜点分布于圣诞岛清澈的海水中，色彩斑斓的珊瑚花园是超过575种热带鱼的家。11月至次年5月还有鲸鲨来访-你还知道澳大利亚哪些小众小岛呢？：ChristmasIslandTourism-红蟹红蟹迁徙</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>#澳大利亚旅行 #gday澳大利亚 #圣诞岛 #圣诞岛红蟹 #圣诞岛红蟹迁徙 #笔记灵感 #出国游 #出境游 #动物迁徙 #澳大利亚旅游攻略</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>我去看了三次，今后打算再去
+这种蟹好吃吗？
+请问澳洲本岛飞圣诞岛要过海关吗？还是就是普通的domesticflight？
+有组织去吗
+想问下，基林群岛外国人可否去？另外雅加达飞圣诞岛的航班恢复了嘛？
+能，怎，否？
+圣诞岛感觉全是难民去不了本土的难民都先在圣诞岛上排号
+为什么有鸡。。。这鸡长得很适合煲汤
+图一里的鸡也来找吃的吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>whv D27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/643e7f8e0000000013030d60</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>61</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">分享美丽的圣诞岛	岛上唯一免费的东西	下周一周二又要放假，所以周五周六周一周二连着四天都可以休息，澳洲四月真的假期好多啊哈哈	喜欢放假，但是工时可能就没眼看了	不知道supervisor还会不会让我们加班拿double	之前在华人餐馆打工两天薪资还没到账，那个老板一直给我说马上马上坏消息，我们竟然没网络了！！妈呀崩溃，我没吃的都可以，没网络真的会die岛上资源很缺，所以每家每户虽然有wifi但是也限制流量，比如我们只有200g，竟然只撑了10多天没办法又一人掏15找房东，让她帮忙买了50g，视频是不敢刷了，现在我编辑小红书这会儿功夫又消耗掉了几兆流量。玛雅哈特痛痛	一天没打开痘印了，手痒，等下我要怒刷幸亏晚上12-7点是免费的，只能夜间下载电视看了，等放假我要白天睡觉晚上看手机，主打一个偷龙换凤，颠天倒日（瞎说的）	</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲打工度假 #澳洲WHV #Whv</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>今天看完了你的作品，真的好厉害啊佩服
+是在岛上的luckyho打工吗？
+自从上次看了你蘑菇的视频后你的帖子我每个都不计较流量必看哈哈哈
+看着你的分享，也是个很有意思的人呢～
+没有wifi吗
+这里海景是不是非常好看</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>新加坡为270万英镑卖掉了这座岛？</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>新加坡投资指南</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65a8f5f5000000002b014988</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5f67e425000000000100b5e1?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6368a808e5380d9c932c2ed2.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>53</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>在世界上有这样的一个小岛，约80%的居民都是华人，是全球除中国和新加坡外，少数以华人为主的地区之一，而它就是位于印度洋的圣诞岛。圣诞岛曾属于新加坡，面积135平方公里，约占新加坡独立时面积的20%。但新加坡却将这座岛屿买给了澳大利亚，这是为什么呢1643年，这座小岛才被人们发现，英国船长威廉.迈纳斯在圣诞节前夜发现了这座岛，于是命名为圣诞岛，但是并未登岛，留下类似英占的标识就离开了18世纪到19世纪期间，英国在亚太地区扩张殖民地1867年，英国正式派遣官员到海峡殖民地，开始管理圣诞岛。英国向东南亚扩张之时，圣诞岛发现了海量磷酸盐资源。为了开发磷酸盐资源，大批华裔南下涌入圣诞岛，成为了当地的主要居民。随后，一些澳大利亚的工矿业资本开始进驻圣诞岛二战期间，日军占领了圣诞岛。圣诞岛的主权从英国变成了日本二战后，作为战胜国的英国收复了东南亚的殖民地。1949年，澳大利亚政府利用英国资本大规模撤离圣诞岛之际，收购了圣诞岛磷酸盐矿的所有权。并且英国对殖民地的行政区进行了调整，使新加坡成为了单独的殖民地，并管辖圣诞岛随着民族解放运动的进一步深化，新加坡自治运动引起了澳大利亚的不安。尤其是圣诞岛上的澳大利亚矿主，担心自己的矿山被日后独立的新加坡国有化，所以希望在新加坡独立之前争取到圣诞岛的主权1958年，英国利用新加坡尚未独立，无法行使主权之际，直接做主将圣诞岛的主权交给了澳大利亚。新加坡虽不情愿，也只能含泪签订《1958圣诞岛法令》，得到了290万英镑的补偿费，至此新加坡把圣诞岛归属澳大利亚，成为澳大利亚的外领地@小红书创作助手</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>#新加坡投资 #英国殖民 #新加坡历史 #圣诞岛 #华人</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>whv 转眼来圣诞岛集签6个月了！！</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65392b8a000000001f03853f</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" t="n">
+        <v>36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">嗨朋朋朋们！！太久没更新啦！！主要原因还是太懒了啊哈哈哈	在岛上日复一日，挺无聊，挺好玩，想吃东西，想回国，想去holiday基本上都是这几个想法每天变来变去	没更新的日子我在圣诞岛度过了岛上最盛大的岛庆，coveday，基本上全岛人都参加的节日，挺好玩的哈哈但是没有我想象的好玩，还是岛太小了，卖吃的店铺很少，一逛就到头了，不过在海边铺着毯子，听着歌跟朋友聊天还是很舒服的	还认识了新朋友，新来的韩国男生哈哈，跟我们一个公司不是一个部门，我们一起在家打火锅，一起玩，一起hiking，很开心～	还做了人生的第一次hiking，弄的腿上全是伤口，但是很开心哈哈	最近做了很多运动，走路爬山已经成为了日常，喜欢出汗的感觉	醉醉醉少不了的是吃吃吃，跟我们朋友吃，跟其他朋友吃，每周都有social很肥很快乐	</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲WHV #澳洲打工度假 #WHV</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>即将去圣诞岛集签，想了解那边的生活费还有有什么银行呀？Commonwealth有吗
+cool~感觉好棒！想问下姐妹岛上旺季是什么时候？后面会有招人的可能吗~
+可以请问姐妹是在哪里找到的工作吗
+海边好美！
+最近做了很多运动
+圣诞岛不是那个澳洲搞隔离的地方吗？
+怎么样可以去圣诞岛呢</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>发现了一个隐藏的伊甸园海岛！</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>莹zei的白日岛梦</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/650812ba000000001f03411c</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5df5a15d0000000001004c76?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64585916b72edfcefe4fcce3.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>49</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>最近发现了华人占比超高的圣诞岛，它虽然属于澳大利亚，是澳大利亚的拘留地之一，但是其实离印尼、新加坡不算太远。_小岛虽然湿度会高一点，但全年最高气温不超32℃，还蛮舒服的。_这个岛很小，还没有北京海淀区大，定居人口才2000+，真的是太少了……但岛上整体是大社区的感觉，氛围比较好。_当地物价还是挺高的，当地人也在积极推进当地种植业的发展，希望未来能降低生活成本。_主要经济支柱是磷矿，但也在往旅游业转型，密切关注这个小岛的发展，好想有机会去看看啊，就是从中国飞过去好像都要从澳大利亚珀斯转，单程基本上就要30个小时了…_划重点，圣诞岛非常适合旅行，也有机会成为适合养老的小岛。_封面图by李桑</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #澳大利亚 #养老规划 #印度洋 #澳洲华人 #海外华人故事 #小众海岛 #小众旅行海岛</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>请问要怎么去圣诞岛呢，从雅加达出发</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>圣诞岛日常</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6430eeec000000001203efcb</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>48</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>圣诞岛最不缺的就是美景要把所有景色都装进我的眼睛里，让它好好爽一下</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #旅途中的美景</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>好漂亮！！那边工作好找嘛
+沃靠沃靠绝了绝了
+好美
+好好看啊，真的能去？
+好舒服啊，18年在澳洲布里斯班待了半年，实习，
+美</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>澳洲WHV｜海岛打工度假日落收集大海治愈一切</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>南瓜秧流浪地球</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c880a5000000001f03945a</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6251af36000000000d031ee9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30tcr8e44440g5oihlsr3e7n98sbaslo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>45</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>追逐夕阳与大海是我关于圣诞岛最初的记忆，一下飞机舍友就说带我去看夕阳，那天海上一丝云也没有，红彤彤的大太阳从海面落下去，我从第一天开始爱上了这里	再后来台风来临之前，每天的晚霞都美到失语，和yutong一起每天跑去海边看日落，如果一般般就摇头晃脑地回家，遇到特别惊艳的就收集进我们的美丽日落榜单，再跑到有网络的家里分享给远方的朋友们，榜首永远都是第一次见到的火烧云，因为特别所以从未被超越	不知不觉在海岛呆了六个月，日子从陌生到习惯，逐渐陷入繁重的工作与日常里，不回顾都常常忘记自己看到了这么多的日落，在很多内心秩序崩塌的时刻，看到夕阳这么美我又可以了	大自然好厉害每天都不一样，但是又按照永恒的规律存在，我可能会一直陷入自洽与自证的辛苦循环，但也希望可以一直记得有这么美的风景治愈过我	走两步就可以追日落的日子是世界给天真小孩的奖章	签证晚霞</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>#打工度假 #澳洲whv #澳洲打工度假 #澳洲 #澳洲打工度假签证 #gapyear #辞职 #日落 #日落晚霞 #一起去看海</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>好美
+太美了
+好美，想念一起看日落的日子
+宛如仙境！！！
+好美啊那里工作好找吗想去
+太美了！！！
+美好
+不仅是世界给你的奖章，更是你在世界眼中的模样</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>免签国+2！出国旅行说走就走</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>玩物丧志</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6523fd3e0000000020002cb3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63f5ea6a000000000f011c2e?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30osor53ijm6g5ovlt9l3q71emj7vrb0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>45</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>好消息：中国普通护照免签又增加了！基里巴斯+安哥拉这两个国家以前属于难办签证之一。趁免签，早点去看看，万一哪天又不免了	基里巴斯位于太平洋中部，全球一天开始最早的地方！由30多个岛屿组成，着2个国际机场，分别在首都塔拉瓦和圣诞岛	基里巴斯游玩推荐：塔拉瓦基里巴斯的首都，金色沙滩，波光粼粼的海水和水下五彩斑斓的珊瑚，真是绝了圣诞岛圣诞岛被公认为太平洋最大的海鸟乐园之一，将近600万只海鸟在这里生活栖息，海钓也是圣诞岛的一大特色活动范宁岛范宁岛是基里巴斯有名的冲浪胜地，地处南北半球的交汇处，不少人慕名而来冲浪体验一把浪潮汹涌的快乐	安哥拉位于非洲西南部，拥有多样的地理环境，包括高原、河流和丰富的野生动植物。自然景观非常迷人	安哥拉游玩推荐：罗安达安哥拉的首都，拥有丰富的矿产、石油、天然气等资源，城市整体散发着浓厚的欧洲韵味宽扎河宽扎河是安哥拉人的母亲河，当地渔民们在河面上撒网打捞鱼类，宁静又质朴Kalandula瀑布非洲第二大瀑布，三面密林环绕，瀑布和浪花发出轰鸣，散发一种狂野的魅力	旅游</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>#基里巴斯 #安哥拉 #免签 #出国旅行 #免签旅游</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>都没有飞机....</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>只有一间房的酒店,圣诞岛</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>文彬Ricky</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/5df1933f00000000010013d8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b1af37611be107223e796d8?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/648660563169075198c11401.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>酒店位于澳大利亚ChristmasIsland圣诞岛，采用一价全包的服务.费用包括了住宿、一日三餐、酒水、管家服务、机场接送、每天指定的活动内容（配向导）、免费浮潜装备、免费上网等。</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>心仪这家酒店已久了谷歌上看旁边还有一栋房，不知是管家住的还是新建的第二栋房
+怎么去这岛，有啥好玩的？
+阿这，
+请问叫什么呀
+请问叫什么名字</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>超小众旅行目的地 基里巴斯</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>.yaya.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65973f29000000001d034d20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/637474b4000000001f01d3be?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30r1pe00t1m005orkeiq7rkturcfkve8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>35</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>33</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>南太岛国基里巴斯莱恩群岛主岛圣诞岛传说中的东14时区</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>#浪漫生活的记录者 #小众旅行地 #旅行 #小众景点</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>回来了，谢谢楼主
+需要新冠疫苗证明吗？
+没有直达的机票请问怎么去的呀
+姐妹这岛上有酒店吗住着能行吗
+請問自己獨旅方便嗎
+请问怎么上网？
+好美</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>澳洲WHV｜在圣诞岛打工度假是什么体验（下）</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>南瓜秧流浪地球</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d31979000000001f014665</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6251af36000000000d031ee9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30tcr8e44440g5oihlsr3e7n98sbaslo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>圣诞岛是与世隔绝的宁静小岛，几乎所有人都是亲切友善的（除了我老板），让我震惊于这对于陌生来客慷慨的善意·下雨天被各种陌生人送回家·上班的anti突然掏出几条鱼给我们·游玩泳开车路过的大叔给了三个火龙果·周一可爱的女孩子们来载我们打羽毛球·下班回家桌上经常摆着不知名邻居给的菜·跟岛上的朋友一起煮火锅/BBQ/日本咖喱/红烧肉	在六个月的时间里隐居在宁静的海边小镇，周末提前做好一周的饭，每天沿着海边小路去上班，五点下班回家散步看夕阳，然后一直听歌画画到睡觉……一度觉得这就是我理想的生活方式，仿佛找到了精神的故乡	在心态不稳的时候感受到了自然的强大治愈力，在打工间隙我们寻找各种机会去码头浮潜、去森林里hiking、蹭朋友的船出海冲浪、在原始海滩上搭棚屋、生火煮泡面、运气好时候还看到了海龟和小白鲨…	在各种好心人的帮助下我在小岛上学会了开车，有车的时候一切变得不一样，感觉好像变成了可以自己出发的自由的大人	回到city以后，再回想这些完全的沉浸于自然的时刻，觉得仿佛是一场梦，但我知道它实实在在发生过，让我触碰到了更真实的世界和自己签证晚霞</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>#打工度假 #澳洲whv #澳洲打工度假 #澳洲 #澳洲打工度假签证 #gapyear #辞职 #日落 #日落晚霞 #一起去看海</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>圣诞岛可以开车上去嘛？
+哇，自由！～～～
+这泡面看起来好美味啊
+人生一颗小珍珠
+哇塞一辈子的美好回忆！</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>忘不了那片海和那个日落</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>张小七</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65ae6b2a000000002d00190d</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5d4467ff000000001103a28d?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6176a799035d64587bdf0ac2.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>31</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>#巴厘岛 #gili #圣诞岛 #斐济 #海岛</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>今天的圣诞岛是橙色的耶✌🏻️！</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64466737000000001303fc40</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>31</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>明天法定休息日	要去公司加三个小时班，但是要早起崩溃住！！	放假几天感觉每天都在睡觉今天午睡又睡了两个小时嘿嘿	干了一件特别无语的事情！！之前从珀斯来圣诞岛之前，特地买了一提卫生纸带过来，用完了房东给的纸，打开我带来的卫生纸，才发现竟然是厨房用纸！！真服了，占用我的行李额，漂洋过海带过来的竟然是厨房用纸，麻了</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲打工度假 #澳洲WHV</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2023-05-14</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>我的微信老家！！
+你这个名字本泽牛是本泽马的粉丝吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Whv第十六天</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6430048f000000001101178d</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>不上班的日子只有吃喝睡，很无聊分享一下圣诞岛的夜景给姐妹们	Gooddream</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>@空气兔好美好
+好看
+图2很美</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>圣诞岛 dolly beach 看海龟</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6565fa0f000000003a00c861</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>第二次去dollybeach了，下午四点出发，开车半小时走路半小时到海边，全是小海龟出现的痕迹，哈哈就是没有碰到本体，碰到一个游客中心的朋友，她说她见了很多次，大的，baby的，晚上7.30应该会有，但是太累了，等不到7.30就回来先了，但是跟朋友一起聊天在海边聊聊天，看看夜晚的海景还是很舒服的，还会想再去</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲WHV #澳洲打工度假 #海龟</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>您好请问去圣诞岛要什么签证呢
+沿海</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WHV｜D66圣诞岛攻略：不可错过二手店和博物馆</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>沙姜椰子鸡配青柠</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64787e4e0000000013031e35</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/57ca2e9482ec391caab404fb?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5bdfcb77e0f9230001cca752.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>29</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>岛民日志44——大龄儿童的节日庆祝方式：买买买，玩玩玩昨天休假了一天，茹茹开车带我们游岛，打开买买买方式。今天下班，Kim带我们去山下的超市回来，我们又步行到了山上的超市，又扛了一大包零食回来。趁着我的照片还在，赶紧把我们到的点记下来。-Offshop岛上唯二的卖衣服裙子的店，唯一的二手店。都是大家捐的衣服，帽子，书籍，饰品，鞋子等。卖出去的钱也是回馈给岛上的社区，可持续发展的理念在这里完美体现。国内出发的时候，只想着是来打工的，不需要漂亮裙子了。稳定下来后可后悔了，后悔没有带好看的裙子，没有带可爱的配饰，还有各色的口红化妆品等。有机会逛店了，当然要血拼一波。三个人一共买了三十多件衣服吧，裙子，Ｔ恤，短裤，帽子，眼镜…总计花费四十几，耗时两小时，如果不是因为还有下一站，我想我们可以在那里一直试，直到3点下班。二手店地址：老人院旁边的路上去，叫Offshop。开门时间：周一到周五，8:00-15:00每一个islander都不应该错过的点。-唯一的红绿灯和博物馆博物馆位于海边，要路过岛上唯一的红绿灯才可以到的。博物馆记录了圣诞岛名字的由来，原住民的到来，岛上的采矿故事（原先用小火车从山上拉下来，一节一节的，现在用管道），还有椰子蟹标本和游岛指南。我们还在博物馆发现了我们亲切美丽的supervisor的照片，惊喜以及被惊艳了。博物馆参观指南：周一到周五，9:00-12:00。博物馆里面会有小册子说哪里有好吃店，游岛注意事项（详情请看图）红蟹</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>#WHV #澳洲whv #人文景点分享 #澳洲生活 #圣诞岛 #圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2023-06-04</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>从印尼怎么去啊求问
+这是哪个国家的</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>澳洲WHV｜圣诞岛打工日记 生活在世界尽头</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>南瓜秧流浪地球</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66bdfea80000000005030e1b</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6251af36000000000d031ee9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30tcr8e44440g5oihlsr3e7n98sbaslo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>27</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>这里的生活是无限接近自然的宁静和自由	家门口的酒吧一周只营业一天，除此之外这里就是椰林环绕、海风吹拂的我们的私家花园。我们会带上毯子，冷饮和瑜伽垫去草地上发呆，月光特别明亮时甚至可以看书	这里仿佛我们的秘境，只有我们会这样做，从家门向山与海无限延伸的所有空间，所有让我感到放松的时刻，都是我跋涉到此所找到的自由，没料到会如此喜欢这里签证集二签</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>#打工度假 #澳洲whv #澳洲打工度假 #澳洲 #澳洲打工度假签证 #gapyear #澳洲whv集二签 #西澳</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>你怎么还在岛上呀一年半了吧快
+这岛偏的快到印尼了
+岛上还有岗位吗？俺也想来
+终于上岛了我的姐
+画质好好！
+你好只想去旅游的话有航班吗
+卧槽，好想去，这个岛。
+圣诞岛居然也可以打工度假啊，中国人多吗
+中国女人拍的照片给他们亿些些震撼</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>旅行进行时☛澳大利亚圣诞岛小红蟹哈瓦那</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>猫猫游世界</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/639ac3d5000000001b015b26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/564fdf4667bc656a40f7e715?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/627d3f49690b5291c9ed1326.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>旅行红蟹红蟹迁徙摄影@澳大利亚旅游局@徐征泽-野生动物摄影师	早上穿哈瓦那人字拖去海滩边找小红蟹。这几天小红蟹大爆发，几百万几千万只从海里被海水带上来。站在沙滩上一会儿的功夫，脚上全是。	红蟹不咬人的，放心。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>#环游世界 #澳大利亚旅行 #澳大利亚 #小众旅行地 #带着小红书去旅行 #旅行随手拍 #澳洲旅行 #西澳 #西澳旅行 #圣诞岛 #圣诞岛红蟹 #圣诞岛红蟹迁徙 #红蟹 #遇见野生动物的奇妙时刻 #野生动物 #野生动物摄影 #哈瓦那 #人字拖 #havaianas哈瓦那人字拖</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>这个小红蟹可以吃吗
+爬在脚上是什么感觉</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>圣诞岛！生活在那里的华人是什么体验？</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>yTubePorter</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6697907c0000000025017d7d</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5a06ca15db2e607b8bf6d462?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo313ms6n6ghi0049vdvo51bl325ou4448?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>23</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>圣诞岛椰子蟹</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d43c1d000000001d01903e</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>22</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>圣诞岛除了满地都是的红蟹和蓝蟹，最多的就是椰子蟹，我在一片椰子林里遍地都是椰子蟹，真让我太惊喜了</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>能吃吗？
+这里的椰子蟹一般大的多少斤多拍点想看
+哇哦，也太棒了，我就在日本见过野生的，圣诞岛绝对是蟹蟹爱好者的天堂
+不吃吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>这个星球上最会跳舞的螃蟹，圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>星球奇观</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66aca8b900000000270103fd</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/668a4f52000000000f03525c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo317gku91l3q005pka9t93ukisjqnt408?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>21</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>#红蟹 #动物科普 #动物世界解说</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>片头有于和伟“接着奏乐接着舞”那感觉
+太神奇了</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>澳洲WHV｜圣诞岛打工零碎日常</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>南瓜秧流浪地球</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66912b890000000003025145</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6251af36000000000d031ee9?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30tcr8e44440g5oihlsr3e7n98sbaslo?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>21</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>赶跑下雨天跑进超市的红螃蟹韩国同事在纸皮箱上教我们写韩语名字欣赏在超市画画安静等爸爸的小正太	做了一杯葡萄冰想着打工喝结果中午出门的时候把它落在了桌子上上班路上哭成泪人	在有新鲜蔬菜的日子揣着我的时尚芹菜背包踩着夕阳下班然后大晚上吃撑了跑去海湾喂鱼2333	记录这些马上就会被忘记但带给我们快乐情绪的瞬间	签证集二签</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>#打工度假 #澳洲whv #澳洲打工度假 #澳洲 #澳洲打工度假签证 #gapyear #澳洲whv集二签 #西澳</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>所以现在温度好像也不冷嘛
+有一双发现快乐的眼睛就会觉得快乐好容易
+姐妹你有抓螃蟹做吗！感觉在海岛会实现海鲜自由</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>旅行进行时☛澳大利亚圣诞岛晚霞</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>猫猫游世界</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63a98f4e000000001b0169ed</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/564fdf4667bc656a40f7e715?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/627d3f49690b5291c9ed1326.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>21</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>旅行旅行红蟹@澳大利亚旅游局	在圣诞岛的最后一晚，老天爷送来这么美丽的晚霞，就在家门口手机拍摄的，直出。左下角的大House就是我们这次住宿的地方。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>#环游世界 #澳大利亚 #澳大利亚旅行 #晚霞 #落日晚霞 #小众旅行地 #带着小红书去旅行 #治愈系风景 #旅行随手拍 #西澳 #西澳旅行 #最美晚霞 #海边晚霞 #绝美晚霞 #圣诞岛 #圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2022-12-26</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>这个地方大概多少一晚啊
+想问问要怎么坐航班去圣诞岛呢
+想问签证怎么办呀～</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>澳洲一小岛华裔占据22%。每年春节放假二天</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AU团团</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65c7f578000000002c02be09</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/597c91ba6a6a6933c66404b0?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/628b8077397705233920b100.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>圣诞岛（英语：ChristmasIsland）是澳大利亚位于印度洋东北部的外岛领地[2]，为火山岛，面积135平方公里。北距印尼首都雅加达约500公里，东南距西澳大利亚州首府珀斯约2600公里，西距另一澳属印度洋领地科科斯（基林）群岛975公里。近期人口调差圣诞岛有人口约1,692人，大部分居住在岛北部的飞鱼湾、银城、半山和德鲁姆塞特。圣诞岛上族裔主要是华人，占据22%。其次是马来人和澳洲人，官方语言为英语，通用马来语和粤语。	1957年，澳大利亚在新加坡自治前，要求英国将圣诞岛主权移交澳大利亚，而澳大利亚政府交给新加坡殖民地290万英镑作为补偿。1958年10月1日，依据《1958年圣诞岛法令》，圣诞岛正式移交澳大利亚管理，成为澳大利亚的外领地，行政上属印度洋领地，澳大利亚国会选区属北领地。	这是澳洲七个外部领土之一，位于西澳海岸附近的圣诞岛，也是全国唯一一个放两天假庆祝农历新年的司法管辖区。这里的人们一直长期重视春节，所以要用两个公共假日来庆祝。今年的放假2天日期是2月12和13日，但是一些居民要庆祝足足15天。PoonSaan俱乐部是一个当地活动的受欢迎的社区大堂，在春节、中秋节、鬼节和重阳日更是如此。送礼去哪儿</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>#过年 #春节 #澳洲生活 #过年送礼 #春节去哪儿</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>澳洲每年的生肖邮票，都是以圣诞岛名义发行的，所以首日封邮戳都是盖那里的章。
+那地方据说红螃蟹满地爬</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>小学生圣诞岛打工日记</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64e3745c000000001201b0c4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>18</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.美丽圣诞岛	2.圣诞岛夜景	3.打工用到一个喜欢的空气清新剂，这个味道我很喜欢	4.做工的时候伤到手腕，but现在已经好了只能说挣钱不易，小叹气	5.最近喜欢的发型可以让我的沙发自然卷乖乖听话圣诞岛又很潮湿，每次洗完头干了真的很像爆炸的松狮，我的发油还在来的路上，寄不到，根本寄不到	6.难吃的薯片配难吃的酸奶，哇！难吃加倍	好想吃海底捞，烤苕皮，炸串烧烤，旋风薯塔，冷面，重庆小面，胡辣汤，凉皮，生煎，麻辣烫啊啊啊啊啊啊</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲打工度假 #澳洲WHV #饿狼</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>棒棒
+今天提交了，希望能抽中
+这个工作是咋申请的呢
+去找你吧
+新加坡有海底捞快来！雅加达也有！</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>whv｜海岛绝美雨后日落</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>休伊特不想要逃</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65e726af000000000400349a</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/565afe57f53ee0299bc0591b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30q8jkpog7c7043golnv5em8r62uorqg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>18</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>#最美日落 #海边日落 #日落 #圣诞岛 #澳洲whv #WHV #贩卖日落</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>圣诞岛的the dales景区（二）</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d5930e000000001d019614</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>17</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>圣诞岛的thedales景区除了海滩、原始热带雨林，还有遍地密密麻麻的巨大蓝蟹（一个起码半斤到八两）、满地的椰子蟹，在这里真的可以实现蟹自由（二）</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>能吃椰子蟹吗？
+行走的1000元</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>生完孩子就得大补的圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AD动物园</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66fc7cda000000002a036765</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/66f134be000000001d030bec?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31838417j4a005pnh6iv7e2vcth680f8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>17</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>#动物解说 #万物皆有灵性 #搞笑动物解说 #圣诞岛红蟹 #动物</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>我想知道，好吃吗？
+蹦迪产子好好笑
+不错</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>圣诞岛千万数量级别的红蟹小蟹大迁徙</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>徐征泽-野生动物摄影师</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/643c18ea000000001402743b</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ee4893e000000000100761b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/628ef0bf781b8edc0574fad4.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>16</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>这是去年12月底我在澳大利亚圣诞岛拍摄的千万数量级别的红蟹小蟹从大海迁徙进入树林的难得场景，小蟹从大海返回沙滩，在沙滩上完成蜕化，从大眼幼体变成小蟹，之后必须尽快进入森林，避免猎食者（比如岛鸫和黄蜂蚁）以及太阳暴晒。数量惊人，我用快放效果，是不是有点滚筒洗衣机的视觉效果？[偷笑][偷笑]红蟹红蟹迁徙@视频薯@小红书视频号@摄影薯@生活薯</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>#遇见野生动物的奇妙时刻 #野生动物摄影 #保护野生动物 #圣诞岛 #圣诞岛红蟹 #圣诞岛红蟹迁徙</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>空标题</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>毛毛记录</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/664d8ee600000000140193fd</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/63756adf000000001f01f7bf?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo311tcnmkchi605orldbfnrttvjctk1mg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>16</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>圣诞岛红螃蟹产卵，边产边吃</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>#热门 #纪录片 #科普 #抓螃蟹 #赶海拾贝 #动物百科 #大自然 #动物科普绘本 #搞笑视频</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>华人为主的圣诞岛，螃蟹真的横行霸道</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>老马识图</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/654f0b5d000000001b034bed</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6504601d000000001603b704?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30qdi67h3g6605p84c0elndo4mmsgsk8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>16</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>澳大利亚有个圣诞岛，是全球除中国和新加坡外，少数以华人为主的地区，岛上41%是华人。圣诞岛上有一种螃蟹叫红蟹，每年10月底，当热带雨林的大雨来临的时候，红蟹便开始了成群结队奔向大海，经过的地方是一片通红。它们全靠对大海温度的感觉辨别方向，不管是住宅，还是停放的汽车，一律跨越。当地政府为了保护它们，在有的地方修建了红蟹专用的野生动物通道，甚至在迁徙的高峰时期关闭公路和铁路。</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>自然界的奇观
+这个螃蟹好吃吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>圣诞岛</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d693cd000000001d016f98</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>15</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>圣诞岛属于澳大利亚海外领地，面积1350平方公里，人口2000人，官方语言是英语，但华人间通行粤语，该岛仅有一个邮局、一个警察局、一个学校、一个加油站、一个大型超市、一个俱乐部、一个旅游信息中心，全岛仅有一个红绿灯</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>需要澳大利亚签证吗
+@阳光帕尼尼
+@momo@小蜗仅有一个红绿灯有点搞笑的可爱
+新加坡去飞哪个城市</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>聖誕島華人新年</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>鄉村小子</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65cc21ef000000000b022a3f</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6460a203000000001002a816?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6460a4bb7c7d626e264e5068.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>15</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>澳洲電視台SBS來聖誕島採訪，今年的華人新年真的非常熱鬧好玩</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #打工渡假</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>它们不会放15天吧
+你好财神</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>澳大利亚适合度蜜月的地方</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>精致旅行的蓝马</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64f076f8000000001f03849f</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5eb507eb000000000100321b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/60c6216cafb162ef74405f80.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>15</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>圣诞岛是特别适合度蜜月的一个地方。ChristmasIsland（圣诞岛）澳大利亚最偏远的岛屿之一，从西澳首府珀斯（Perth）飞行3.5小时左右的距离。这个岛上有令人惊叹的、充满野生动物的景观。这里有僻静的海龟筑巢的海滩、稀有和不寻常的鸟类、世界一流的浮潜和潜水、丛林瀑布、洞窟和著名的红蟹。圣诞岛是一个美丽、安全、恢复活力的世外桃源。爱侣住在圣诞岛国家公园内唯一的酒店SwellLodge，体验地球上最非凡的环境。当海鸟以手臂的距离飞过，鹦鱼在下面的珊瑚礁上巡游时，从你的床上凝视数公里的无人居住的海岸线，这个有远见的生态小屋让人联想到优雅奢华的终极悖论，完全沉浸在大自然中。SwellLodge的私人厨师的美食，巧妙地将热带风味与现代气息融合在一起，点燃了所有感官。强调新鲜的当地觅食食材，与气候和个人喜好完美匹配，每顿饭——无论是在阳台上供应的3道菜晚餐还是在旅游中享用美食野餐午餐——都是对该地区丰盛的庆祝。</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>#澳大利亚旅行 #蜜月旅行 #旅行 #笔记灵感 #爱</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>圣诞岛航站楼等你✈️</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>水瓶月🌙</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/655f1f510000000032000c96</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ac881f94eacab568995f814?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo30o3p994426004a4bl20vju0kgqpbhr8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>14</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>#打卡 #拍照 #雪天拍照 #圣诞氛围这么拍 #浪漫生活的记录者 #沈阳</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>催更新，公主大人
+@掰一嘎</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>圣诞岛红蟹：孩子太多了怎么办？吃了它们！</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>宇宙生命</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e54ba400000000120113ca</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/66419a0300000000030305bc?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/66b2f696a19061188b907793.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>13</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（朋友，想看更多野生动物，点点关注啊！）圣诞岛红蟹：孩子太多了怎么办？吃了它们！如果喜欢不要忘记点赞！</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>#野生动物 #纪录片 #动物世界 #圣诞岛红蟹 #大自然</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>这种螃蟹能吃吗
+穷养孩子富养己，老娘也要补身体
+老娘母仪天下吾儿入口即化横批：为母则刚
+这种螃蟹好吃吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>WHV｜D71 圣诞岛有一个韩国🇰🇷女子组合</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>沙姜椰子鸡配青柠</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/648091230000000013007c7f</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/57ca2e9482ec391caab404fb?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/5bdfcb77e0f9230001cca752.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>13</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>岛民日志46	日落爱好选手回归。每个发薪周都过得特别快。铛铛铛，本周已过半。	今日趣事：1.今天浩浩荡荡去了一位听说很喜欢聊天儿和挑刺儿的Autie那里。为了顺畅完成工作，我们三个新人要变身为韩国人。首要宗旨就是不会华语，不懂英语。潜伏成功，顺利完成任务。圣诞岛女团G6，原地出道。	2.撸猫原来真的很舒服Kim家的猫猫很好rua，第一次感受到铲屎官们的吸猫乐趣。难怪之前有个同事说，上班再累，只要下班了回到家，抱着她的猫，那一天的烦恼都没有了。</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>#撸猫 #澳洲生活 #澳洲打工度假 #澳洲打工旅游</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>@代号松松果
+喂～為何你讓我現身，看到照片嚇一跳</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>圣诞岛椰子蟹</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d312fa000000001d0190c4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>13</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>圣诞岛最出名的就是红蟹和椰子蟹，森林和大路边一到下午就陆续的走出来很多很多，而在路边很容易就看到椰子蟹，我们开车遇到椰子蟹在路中间赶紧停下来</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Whv 圣诞岛第一次过万圣节</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/653dceb9000000001e03fbab</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>11</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>哈哈本来想把手臂图作主图的，但是害怕过于血腥吓到朋朋	想cos小丑女来的，但是觉得自己技术不够，害怕破坏脸上的妆偶像包袱过重，就画了个心嘿嘿	手臂是我们同事给我们画的，三点钟就画好了，到8点去酒吧de时候，全他喵的掉了我真服了哎呀蹦着蹦着手臂已经空空如也	昨晚主打一个到处找人拍照，见人就说ohmygodyou‘resocool.Canutakeapicturewithme	昨晚是我醉累的一晚以前白天去扫描，晚上连去两场都一点事没有，昨天没有去扫庙，晚上去玩，12点就累的不行了，今天浑身酸痛。喉咙也哑了	总之是一次很好玩的体验哈哈	HappyHalloween</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲WHV #澳洲打工度假 #万圣节</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>旅行进行时☛澳大利亚圣诞岛红蟹迁徙</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>猫猫游世界</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63994758000000001f00886e</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/564fdf4667bc656a40f7e715?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/627d3f49690b5291c9ed1326.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>11</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>旅行红蟹@澳大利亚旅游局	第三次来到澳大利亚的圣诞岛，看一年一度壮观的红蟹大迁徙。	由于疫情，国际航班关闭，这次我们是吉隆坡飞6小时到珀斯，住一晚，再飞4小时到圣诞岛。以前是雅加达一个小时就能到了。	如此辛苦，机票也贵（往返近一万人民币），但是非常值得。	官方公布12.18是大迁徙爆发的时间，昨天一到，听说小蟹上岸了。马上冲沙滩，先去看成千上万的小蟹。	沿途已经看到很多肚子鼓着的母蟹往海边走，今天早上拍了零星先头部队产卵。过两天会有更多。	三年了，这里似乎时光停滞，一切都没变。海关的人，餐厅的人，超市的人都还是这些，路和风景依旧。	后面我们会持续报道大迁徙的盛况。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>#环游世界 #带着小红书去旅行 #小众旅行地 #遇见野生动物的奇妙时刻 #野生动物 #澳大利亚 #澳大利亚旅行 #西澳 #圣诞岛 #圣诞岛红蟹 #红蟹 #动物大迁徙</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>羡慕</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>圣诞岛</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/645fd93c00000000130137e2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>11</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>又去看大海了，每个海边的景色都不一样，神奇的大自然～</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2023-05-14</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>好澎湃</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>圣诞岛，必然是永夏之地！</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>小唯</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65f84bef00000000120223d3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/65d6d3bf000000000503175a?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/645b7ea002c16c941e0bcb05.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>自从被删除好友，已经半年了。那晚的场景犹如刚刚经历过一样，明明全是我的错，却说不是我的错？！凭什么？明明是属于我的错误。不太乐观，半年内，我们一直每天在聊天，微信地区挂着圣诞岛，昵称却向往希望好运发生，签名写着：用坚定的信念和勇气战胜困难和挑战的意思。想要帮助她，我知道，这次如果失败，将会更加伤害对方。所以，我没有失败的退路，必须成功。此次行动直接成为我个人人生规划的必然的事件。如果失败，我愿葬送我的未来。不过，不会失败的。因为，我已经看见了未来，此次必胜！圣诞岛，必然是永夏之地！我将会在3月23进行，此次我的愿望是：想要看到她的笑颜。之后，去种田吧，半年里，我将会种下向日葵以及其他农作物。此事件是我的必然。此次事件规划为我的人生事件，代号为：永夏·星光。</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>那之后打过去的电话，对方接了，明明已经可以了，但是，我还在犯错，还在犹豫，7月，直到对方“出岛”我觉得已经够了，所以送出了告别的短信与删除了所有痕迹。终究是因为我造成的一起，所以，我该有所作为。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>澳大利亚圣诞岛上的红蟹迁徙</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>喵走喵看</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66b77d69000000001e01c779</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6353f2ee000000001901d676?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/63563abaf6739960fd34b75f.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>澳大利亚圣诞岛上的红蟹迁徙是地球上最令人难以置信的自然现象之一，每年，数百万只这些大型螃蟹从森林中涌出，前往海洋交配，它们涌过道路、溪流、岩石和海滩，形成了壮观的景象。</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>#你要去观世界才会有世界观 #海滩</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>聖誕島～dolly beach</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>鄉村小子</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/649bf2230000000014024a2c</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6460a203000000001002a816?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6460a4bb7c7d626e264e5068.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>今天假日，全體浩浩蕩蕩一大群人，5台車，出發去海邊，這個海邊一定必須開4輪傳動的車，到達目的後，還得走將近30分鐘的山裡，才能到達海邊，所以影片看到每個人手上都提著食物和飲料，走到虛脫前一天問@本泽牛去不去，一直回答～我不去我不去，結果在最後一分鐘，突然又說要去，超想揍死她，因為當初我們在統計多少人要去，需要多少台車，@本泽牛她說不去，當然沒算她和Goay，後來又突然改變主意，我們又必須緊急在找一台車出來，這兩個人真的超機車早上9點多出發，到底海邊已經10點半，光走路就超過30分鐘，累死了但既然來到聖誕島，一生還是必須得來一次，因為走路很累，必須體驗</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #打工渡假 #beach</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">超多的螃蟹
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>圣诞岛 最后半个月倒计时</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66828a88000000001f0073ae</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>16号飞珀斯，17.号飞墨儿本真的要对这个小岛说再见了之前每天期待飞出去，因为这边没有什么娱乐，吃的又很贵，但是真的到时候了，很不舍，毕竟在这里呆了14个月，这里交到很好的朋友，已经适应工作日上班，周六跟antuie早上先吃一顿roti，然后去扫庙，中午去吃一顿我最爱的鱼头米粉，晚上去pub玩一下，然后接着去做batender，觉得这种生活还蛮适合我的	最舍不得的肯定是朋友，超级幸运被她们选中做朋友，一直照顾我们，我的马来西亚朋友啊啊啊，每次邀请我们去家里吃饭，给我们好吃的，带我们玩，哎！舍不得	还有每次给我们做饭做好吃的我的auntie们，舍不得……	有时候会觉得自己做决定是不是太草率了，不应该脑子一冲就去墨儿本，呆在珀斯的话还可以跟朋友跟阿姨们再见</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>#whv #WHV #打工度假</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>请问马来西亚吉隆坡可以买机票飞圣诞岛吗？
+要澳洲签证吗
+岛上不错吧
+请问你那需要招人吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>圣诞岛红蟹：不仅喜欢鹏迪，还是一个大眼怪</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>小七观世界</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66ffc4bb000000001902c4a8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6499480e0000000025037471?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo3185gcesu3q6g5p4p9079et3hnf6u3dg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>圣诞岛登岛存档👾</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nide橙</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/639092a5000000001f00d642</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5a96210211be104b6366b464?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31683d1lngu004a2tafgg5d34ht45ap0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>整个12月就是圣诞岛岛民的狂欢时刻限定好去处</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>#圣诞氛围这么拍 #圣诞 #圣诞限定 #圣诞好去处 #一起过圣诞</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>从哪里飞的？圣诞岛</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>是吃？还是逃？</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Jason和您一起游澳洲</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66aadfd5000000000600cd70</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b5a66164eacab29fd02f339?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64023bb458ad7ad7bb64b9e6.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>想象一下，在西澳大利亚州远西北海岸的圣诞岛上进行一场宁静的露营旅行，你正享受着在星空下刚刚烹制好的烧烤。这时，你发现自己被岛上最有趣的居民——椰子蟹（也叫盗贼蟹）围绕着。这些巨大的螃蟹是世界上最大的陆地甲壳类动物，体重可达9磅，宽度可达3英尺。尽管它们看起来有点吓人，但这些温和的巨人对人类完全无害。它们是夜间觅食者，通常在夜间或阴天外出寻找食物。有趣的是，它们有一个特殊的习惯，喜欢偷走闪闪发光的物品，这就是它们名字的由来。从锅碗瓢盆到露营装备，它们会带走任何它们觉得有趣的东西！圣诞岛是世界上数量最多且保护最好的椰子蟹的家园。岛上独特的生态系统和保护措施使这些蟹能够在这里茁壮成长，达到其完全的潜力大小，而在太平洋其他地方，它们因为被捕猎而几近灭绝。如果你计划前往圣诞岛，你将会经历一次难忘的野生动物邂逅。岛上的郁郁葱葱的热带雨林，充满了丰富多样的动植物，为这些蟹提供了完美的栖息地。在露营时，你可能会发现自己被几十只好奇的椰子蟹围绕着，这将是一段难忘且有趣的体验。记得把你的物品挂起来，因为这些蟹可是出了名的“小偷”哦！下次如果你在寻找冒险，不妨考虑来一趟圣诞岛之旅吧？拥抱意外，与岛上最著名的居民共度一段美好时光。谁知道呢，你可能会和几只好奇的蟹一起分享烧烤哦！正如《楚辞》中的一句话：“鸟飞反故乡兮，狐死必首丘。”这些椰子蟹虽然喜欢偷东西，但它们也是这片土地的忠实守护者，见证着圣诞岛独特的自然风光和生物多样性。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>#螃蟹 #澳大利亚 #美食</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">圣诞岛是海外华人最密集的地区，一度岛上华人比例超过80%，就这样都没把椰子蟹吃完，估计不咋好吃
+以为是蜘蛛
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>低调一下&amp;</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e551350000000025030fa2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/65ba3a00000000000903e37c?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/645b7f257b3e7e60e53504de.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>#舌尖上的奢华</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>有毒</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>圣诞岛千万级别红蟹小蟹抢滩登陆</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>徐征泽-野生动物摄影师</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/656b4ac0000000003802c45e</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ee4893e000000000100761b?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/628ef0bf781b8edc0574fad4.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>这是去年12月底在澳大利亚圣诞岛拍摄的千万数量级别的红蟹小蟹从大海登陆到海滩上的壮观场景。这些圣诞岛红蟹的大眼幼体在大海中经历三周的存活和蜕壳，成功返回海滩，还要经过一次蜕壳变成小蟹样子。被海水冲上海滩很省力，但接下来要面对的一个是高温，一个是猎食者（比如黄疯蚁，岛鸫，沙蟹等），还有同类相食，所以这个过程也是生死一线，弱肉强食。数量惊人，我拍摄了一段长时间视频，用快放效果，是不是有点大战抢滩登陆的紧张刺激？红蟹红蟹迁徙@视频薯@小红书视频号</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>#遇见野生动物的奇妙时刻 #野生动物摄影 #保护野生动物 #圣诞岛 #圣诞岛红蟹 #圣诞岛红蟹迁徙 #红蟹 #野生动物大迁徙</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>旅行进行时☛澳大利亚圣诞岛红蟹大迁徙</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>猫猫游世界</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/639d550f000000001f010384</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/564fdf4667bc656a40f7e715?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/627d3f49690b5291c9ed1326.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>随手拍旅行旅行红蟹红蟹迁徙@澳大利亚旅游局	今天凌晨4点再次来到海滩边看红蟹的母蟹释幼。明天就是官方公布的正日子了，大量的带幼体的母蟹在岸边的岩石集结，非常壮观。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>#环游世界 #带着小红书去旅行 #旅行 #小众旅行地 #旅行随手拍 #小众景点 #澳大利亚 #西澳 #澳大利亚旅行 #西澳旅行 #圣诞岛 #圣诞岛红蟹 #圣诞岛红蟹迁徙 #野生动物 #遇见野生动物的奇妙时刻 #动物大迁徙</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2022-12-17</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>圣诞岛华人</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d6945b000000001d0178f2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>圣诞岛总人口中有63%居民都是华人，华人间通行粤语，机场的检查人员、饭店以及路边的居民很多都讲中文，岛上有华人公馆、观音庙及众多中式寺庙和宗祠等</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>好家伙真的是中国人无孔不入了大西洋无人小岛太平洋无人小岛亚马逊都有中国餐馆我的天，要不这世界就限制中国人都得办签证呢
+哈喽博主，这边想与您洽谈下商务合作，期待您的回复！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>印度洋华人为主的小岛圣诞岛</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>福瞰世界Fukan world</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/668f0222000000000d00d413</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6544f610000000000400a493?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo310p411lu6ke05pa4uo81194jko7gfr8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>圣诞岛是澳大利亚位于印度洋东北部的外岛领地，为火山岛，面积135平方公里。北距印尼首都雅加达约500公里，东南距西澳大利亚州首府珀斯约2600公里，圣诞岛有人口约1,692人，大部分居住在岛北部的飞鱼湾、银城、半山和德鲁姆塞特。圣诞岛上最大族裔是华人，华人种族特征保留至今，岛上有“华人公馆”、“半山公馆”等华人社团及中式寺庙和宗祠等，居民都能说粤语。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #印度洋 #华人</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>聖誕島～飛機場</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>鄉村小子</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64aba702000000003102da98</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6460a203000000001002a816?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6460a4bb7c7d626e264e5068.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>說啥？沒啥好說的，就是一個聖誕島的小小飛機場</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #打工渡假 #飞机场</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>聖誕島島慶</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>文</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65799b6d000000001502d9ab</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5d8e3a0e0000000001004c4a?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6579a8a73b6c7c1a681a0460.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>10月的第一個星期一是聖誕島的島慶，當天島上所有人都放假來參加為了搶到好位置，在島慶前幾天就已經有人搭棚子佔好地方聖誕島的島慶主要是會有個小市集跟比賽市集有一些食物跟衣服，比賽有釣魚比賽跟划船比賽划船比賽的小船是由參賽者自行製作，所以有翻船的情況發生（請看下一篇）	其實島慶沒有想像中的好玩，就是在海邊從早待到下午，跟朋友喝酒聊天、等待下午的划船比賽，不過也是個新奇的體驗呢	Day</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #澳洲打工度假 #Cove</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>聖誕島每2週一次的空運</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>鄉村小子</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64db1371000000001201894d</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6460a203000000001002a816?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6460a4bb7c7d626e264e5068.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>在島上，每2週會有一次從伯斯運送新鮮蔬果的飛機來聖誕島，有些人也會自己買些用品讓飛機運送過來，但運費非常貴，一公斤好像要10澳幣，所以20公斤一箱就要200澳幣（不含裡面的物品價錢）但由於船是大概3個月才來一次，到這邊時，船上的蔬果幾乎不新鮮不漂亮了，但比較便宜，如果想吃新鮮的，那就只能花更多的錢，買新鮮的飛機貨囉！通常飛機貨一來，隔天幾乎就賣光光啦！所以你們會看到難得一見的喪屍團搶貨</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #旅遊 #打工渡假</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">东西这么贵的话,Hourlywage有$50吗？
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>打扫了一天海景房😆</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>本泽牛</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/64524ecf000000000800e448</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5ad5d7abe8ac2b5f2880487f?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/64057c41851484a2fac3e055.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>圣诞岛很多房子都能直接看到海就连我住的地方都离海边很近，主打一个piu亮</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>#澳洲whv #澳洲打工度假 #澳洲WHV</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2023-05-03</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>海那边相衬的云朵也好美喔！</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>《圣诞岛红蟹》大迁徙</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>神马视界</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/670bba4d0000000016022cea</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/66324a7b000000000d0276ca?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo318t4lmiv446g5phi99tjctma98i1o6g?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>圣诞岛红蟹大迁徙解说</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>#纪录片 #纪录片解说 #圣诞岛红蟹 #搞笑</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>河北</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>《圣诞岛红蟹大迁徙》刚满18岁，我儿嘎嘣脆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>旅行进行时☛澳大利亚圣诞岛蚊子凶猛</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>猫猫游世界</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63a83d2b000000001f008aee</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/564fdf4667bc656a40f7e715?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/627d3f49690b5291c9ed1326.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>随手拍红蟹红蟹迁徙旅行旅行叮咬什么时候灭绝你惨了	第三次来圣诞岛，看到红蟹产卵（释幼）和小蟹上岸的壮观场景。但是，今年雨水太大了，所以蚊子非常的凶猛，我们一天就是几十个包。	这只是在车里手工拍死的，吸饱了血，还显示满格。</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>#环游世界 #旅行 #小众旅行地 #旅行随手拍 #带着小红书去旅行 #小众景点 #圣诞岛 #圣诞岛红蟹 #圣诞岛红蟹迁徙 #澳大利亚 #澳大利亚旅行 #西澳 #西澳旅行 #野生动物 #遇见野生动物的奇妙时刻 #蚊子 #蚊子叮咬 #蚊子什么时候灭绝 #蚊子你惨了 #毒蚊子</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2022-12-25</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>要西来，吃了噶胖</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>聖誕島～鯨魚</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>鄉村小子</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/649040f90000000013036996</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6460a203000000001002a816?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6460a4bb7c7d626e264e5068.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">今天鯨魚現身了，應該是附近有很大的魚群出現，其實在這很常在岸邊就能看見鯨魚或海豚，因為這裡有非常多的魚群，所以也是他們常來這裡覓食的原因	</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>#鲸鱼 #打工渡假 #圣诞岛</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>@本泽牛@棱泱聽說鯨魚禮拜六就已經出現了，虧你們待在海邊一整天，
+期待下一次的海豚
+绝美绝美</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>5秒分辨澳大利亚圣诞岛：超神奇的螃蟹国度</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>图影猎手</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66330931000000001e03714c</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/633df2160000000018020f78?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo318rqt09b0q6g5optu8b643ro6gqcb9g?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>一张图5秒钟全球定位！</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>#图寻 #地理 #网络谜踪 #螃蟹 #推理</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>圣诞岛红蟹</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d2c061000000001d03ac40</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>圣诞岛第一次听到这个名字就是因为红蟹，每年圣诞节前后红蟹都会在圣诞岛进行大迁徙入海产卵而漫山遍野，我这个季节看不到迁徙，但一样可以看到不少的红蟹</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>地蟹界难遇难求</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>聖誕島的日落</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>文</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6507ec7c000000001e00c351</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5d8e3a0e0000000001004c4a?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/6579a8a73b6c7c1a681a0460.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">不是個浪漫的人，但聖誕島每天日落天空顏色的不一樣，真的很美	</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>#圣诞岛 #澳洲打工度假 #日落</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>日落真美，心情也美！</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>你没听错 圣诞岛上有一个伦敦和香蕉</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>我推符青流珩流萤天下第一</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6617e6c8000000001a00d2a0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/623bf2af0000000010006ff7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/661ca578add2988032067530.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>英国：亻尔女子</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>#圣诞岛</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>澳大利亚帕斯飞圣诞岛空中看到珊瑚礁景色</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d1e38f000000001d017095</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>从澳大利亚柏斯飞到2600公里外的澳大利亚海外领地圣诞岛，在空中可以看到一些壮观的珊瑚礁景色</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>圣诞岛the dales景区</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d592c9000000001d015eb4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>圣诞岛的thedales景区除了海滩还有原始热带雨林，各种奇形怪状的灌木以及瀑布很有特色（一）</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>空标题</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>赤橙黄绿青蓝紫</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63c628a50000000022034b18</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/6166e65d0000000002025a3d?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1000g2jo2o0j0tm4jq06g5ob6spegkmhtn03ika8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>澳大利亚圣诞岛泛滥的红蟹，每年11月左右，大概有1亿只红蟹迁徙到海中产卵，可谓是自然界中最壮观的景象之一。</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>唯一中国人不敢吃的物种</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>圣诞岛蓝蟹</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d43c6f000000001d039f1e</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>圣诞岛真的是满岛都是蟹，除了满岛都是都是的红蟹和椰子蟹，还有巨大的蓝蟹</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>作者您好，我一直想来圣诞岛，这边国内出发是跟什么团还是自由行呢
+天蓝图氏蟹圣诞岛红蟹</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>圣诞岛Ethel海滩</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d314f8000000001d01bd57</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>圣诞岛的Ethel沙滩：波浪汹涌，蓝色海水和火山石构成独特风景</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>圣诞岛the blowholes</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d316aa000000001d01a30d</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>圣诞岛的theblowholes是火山灰岩石群，各种形状各异的特别壮观（一）</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>圣诞岛观鸟</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d3128c000000001d01472d</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>圣诞岛除了红蟹和椰子蟹之外，岛上最多的就是各种观鸟，这里的鸟根本不怕人，有些甚至躺在路中间挡住车</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>圣诞岛lily海滩</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d2c029000000001d03a73a</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>圣诞岛的lily沙滩清澈见底而入海口海浪翻滚，各种颜色照耀下特别好看</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>水咸吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>圣诞岛greta 海滩</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d43fe6000000001d016c17</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>圣诞岛的Greta海滩：巨大岩石及波浪；Margaretknoll观景台：可以观看连绵的海岸线</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>圣诞岛原来是澳洲的呀</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>祈雨</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66fa0214000000001a02348b</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5db7f55800000000010001b4?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo31733jua73m6g5ndnulc080dkstfctk0?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>以前听这个名字就很喜欢，现在算是知道位置了</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>#环游世界 #地图</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>圣诞岛the grotto溶洞</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d3145e000000001d01709e</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>圣诞岛的thegrotto溶洞及悬崖：溶洞的海水非常清澈，悬崖峭壁的波浪起伏大</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>圣诞岛物价</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d2bfba000000001d039d6f</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>圣诞岛由于不产水果和蔬菜，所以物价特贵，比如一个芒果半斤就要10澳元（大概人民币49元），青菜居然要75元人民币一斤，橙子大概人民币23元一斤</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>圣诞岛博物馆</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d69413000000001d03af43</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>圣诞岛旧总督府：是原来总督住的地方，建于1888年，现在是圣诞岛博物馆，介绍圣诞岛的历史文化及岛屿发展历史、保存的岛屿文俗用品</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>圣诞岛西部白沙滩及马丁观景台</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d5944b000000001d03bca5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>圣诞岛岛屿西部的白沙滩：其实不是白色沙子而是白色石灰岩在蓝天照耀下特别显眼（图1-5）；马丁观景台：可以看到壮观的波浪冲击巨大岩石的景色（图6-9）</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>圣诞岛飞鱼湾</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d43e74000000001d014e1a</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>圣诞岛飞鱼湾在岛屿北部，这里聚集了大部分人口，飞鱼湾码头附近海水清澈碧绿、珊瑚礁可见、非常漂亮</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>圣诞岛dolly海滩</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>爱旅游的松松</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d43e95000000001d01855f</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/62c17b9f000000001b0255e7?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/62c17b9f000000001b0255e7.jpg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>圣诞岛的dolly海滩巨大的岩石、细沙的沙滩以及外围汹涌的波浪形成美丽的画卷</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>有坐爬满螃蟹的圣诞岛</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>香港二堂姐</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/63e2dcdb000000001b01f05a</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/5b5bca356b58b713a7cf3c17?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo310vdvsr86o6g4a7jo153af0n8juije8?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>大家好(圣诞岛)Christmaslsland也曾经是新加坡管辖的领土,可惜在1958年，割让了给澳大利亚，岛上面积135平方公里，人口约2072人，华人占85巴仙，岛上小市镇叫（飞鱼湾）到了季节小岛上会出现数不尽的螃蟹奇观，岛上也有非常稀有的椰子螃蟹体型非常大可到达6公斤，￼,还有稀有的鸟类，资源丰富（网络照片）椰子螃蟹是可以吃味道和普通螃蟹差不多但那些小红蟹不能吃</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>无评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>上亿只螃蟹齐聚海滩庆祝生娃节</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>灵尾视界</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6705db77000000001a021402</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/user/profile/66a71b0a000000001d020323?channel_type=web_search_result_notes&amp;parent_page_channel_type=web_profile_board</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://sns-avatar-qc.xhscdn.com/avatar/1040g2jo316snfc32gm0g5pl73c57c0p3sb11leg?imageView2/2/w/80/format/jpg?imageView2/2/w/60/format/webp|imageMogr2/strip</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>#动物 #视觉震撼 #圣诞岛 #螃蟹 #地球奇观</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>无评论</t>
         </is>
       </c>
     </row>
